--- a/props_config_tool/Props_config_Search.xlsx
+++ b/props_config_tool/Props_config_Search.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/props_config_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE28ABD-670B-ED4A-81D4-D3799B4ED751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCBB43-9A86-B74B-AD0C-9911B73C1BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3100" yWindow="-21100" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3100" yWindow="-21100" windowWidth="25600" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
-    <sheet name="Settle" sheetId="3" r:id="rId3"/>
+    <sheet name="Order" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="20">
   <si>
     <t>第1组</t>
   </si>
@@ -110,7 +110,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,18 @@
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -265,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -325,6 +337,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,7 +589,9 @@
   </sheetPr>
   <dimension ref="A1:BF151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C62" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -571,83 +599,83 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="35" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="36" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="30" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="33" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="33" t="s">
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="30" t="s">
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="33" t="s">
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="30" t="s">
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="33" t="s">
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="32"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="38"/>
     </row>
     <row r="2" spans="1:58" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -13502,8 +13530,8 @@
   </sheetPr>
   <dimension ref="A1:CK151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="K70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13512,114 +13540,114 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38"/>
       <c r="Y1" s="28"/>
       <c r="Z1" s="28"/>
       <c r="AA1" s="28"/>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="38"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
       <c r="AI1" s="28"/>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
       <c r="AO1" s="28"/>
       <c r="AP1" s="28"/>
       <c r="AQ1" s="28"/>
-      <c r="AR1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="32"/>
+      <c r="AR1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="38"/>
       <c r="AW1" s="28"/>
       <c r="AX1" s="28"/>
       <c r="AY1" s="28"/>
-      <c r="AZ1" s="33" t="s">
+      <c r="AZ1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="32"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="38"/>
       <c r="BE1" s="28"/>
       <c r="BF1" s="28"/>
       <c r="BG1" s="28"/>
       <c r="BH1" s="29"/>
-      <c r="BI1" s="30" t="s">
+      <c r="BI1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="32"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="38"/>
       <c r="BN1" s="28"/>
       <c r="BO1" s="28"/>
       <c r="BP1" s="28"/>
-      <c r="BQ1" s="33" t="s">
+      <c r="BQ1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="31"/>
-      <c r="BU1" s="32"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="38"/>
       <c r="BV1" s="28"/>
       <c r="BW1" s="28"/>
       <c r="BX1" s="28"/>
-      <c r="BY1" s="30" t="s">
+      <c r="BY1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="32"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="38"/>
       <c r="CD1" s="28"/>
       <c r="CE1" s="28"/>
       <c r="CF1" s="28"/>
-      <c r="CG1" s="33" t="s">
+      <c r="CG1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="31"/>
-      <c r="CJ1" s="31"/>
-      <c r="CK1" s="32"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="38"/>
     </row>
     <row r="2" spans="1:89" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -27658,7 +27686,7 @@
       <c r="CK119" s="12"/>
     </row>
     <row r="120" spans="1:89" ht="16">
-      <c r="A120" s="11">
+      <c r="A120" s="34">
         <v>16</v>
       </c>
       <c r="B120" s="25">
@@ -27839,7 +27867,7 @@
       <c r="CK120" s="12"/>
     </row>
     <row r="121" spans="1:89" ht="16">
-      <c r="A121" s="11">
+      <c r="A121" s="34">
         <v>16</v>
       </c>
       <c r="B121" s="25">
@@ -28020,7 +28048,7 @@
       <c r="CK121" s="12"/>
     </row>
     <row r="122" spans="1:89" ht="16">
-      <c r="A122" s="11">
+      <c r="A122" s="34">
         <v>16</v>
       </c>
       <c r="B122" s="25">
@@ -28201,7 +28229,7 @@
       <c r="CK122" s="12"/>
     </row>
     <row r="123" spans="1:89" ht="16">
-      <c r="A123" s="11">
+      <c r="A123" s="34">
         <v>16</v>
       </c>
       <c r="B123" s="25">
@@ -28382,7 +28410,7 @@
       <c r="CK123" s="12"/>
     </row>
     <row r="124" spans="1:89" ht="16">
-      <c r="A124" s="11">
+      <c r="A124" s="34">
         <v>16</v>
       </c>
       <c r="B124" s="25">
@@ -28563,7 +28591,7 @@
       <c r="CK124" s="12"/>
     </row>
     <row r="125" spans="1:89" ht="16">
-      <c r="A125" s="11">
+      <c r="A125" s="34">
         <v>16</v>
       </c>
       <c r="B125" s="25">
@@ -28743,1335 +28771,1335 @@
       <c r="CJ125" s="12"/>
       <c r="CK125" s="12"/>
     </row>
-    <row r="126" spans="1:89" ht="16">
-      <c r="A126" s="22">
+    <row r="126" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A126" s="35">
         <v>16</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B126" s="30">
         <v>14300</v>
       </c>
-      <c r="C126" s="26">
+      <c r="C126" s="30">
         <v>14300</v>
       </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24">
+      <c r="D126" s="31"/>
+      <c r="E126" s="31">
         <v>37</v>
       </c>
-      <c r="F126" s="24">
-        <v>5</v>
-      </c>
-      <c r="G126" s="24">
+      <c r="F126" s="31">
+        <v>5</v>
+      </c>
+      <c r="G126" s="31">
         <v>38</v>
       </c>
-      <c r="H126" s="24">
-        <v>5</v>
-      </c>
-      <c r="I126" s="12">
+      <c r="H126" s="31">
+        <v>5</v>
+      </c>
+      <c r="I126" s="31">
         <v>1645</v>
       </c>
-      <c r="J126" s="12">
+      <c r="J126" s="31">
         <v>886</v>
       </c>
-      <c r="K126" s="12">
+      <c r="K126" s="31">
         <v>880</v>
       </c>
-      <c r="L126" s="23"/>
-      <c r="M126" s="24">
+      <c r="L126" s="31"/>
+      <c r="M126" s="31">
         <v>31</v>
       </c>
-      <c r="N126" s="24">
+      <c r="N126" s="31">
         <v>10</v>
       </c>
-      <c r="O126" s="27">
+      <c r="O126" s="31">
         <v>38</v>
       </c>
-      <c r="P126" s="27">
-        <v>5</v>
-      </c>
-      <c r="Q126" s="12">
+      <c r="P126" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q126" s="31">
         <v>4</v>
       </c>
-      <c r="R126" s="12">
+      <c r="R126" s="31">
         <v>886</v>
       </c>
-      <c r="S126" s="12">
+      <c r="S126" s="31">
         <v>0</v>
       </c>
-      <c r="T126" s="23"/>
-      <c r="U126" s="27">
+      <c r="T126" s="31"/>
+      <c r="U126" s="31">
         <v>37</v>
       </c>
-      <c r="V126" s="27">
-        <v>5</v>
-      </c>
-      <c r="W126" s="27">
+      <c r="V126" s="31">
+        <v>5</v>
+      </c>
+      <c r="W126" s="31">
         <v>63</v>
       </c>
-      <c r="X126" s="27">
-        <v>5</v>
-      </c>
-      <c r="Y126" s="23">
+      <c r="X126" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y126" s="31">
         <v>1645</v>
       </c>
-      <c r="Z126" s="23">
+      <c r="Z126" s="31">
         <v>682</v>
       </c>
-      <c r="AA126" s="23">
+      <c r="AA126" s="31">
         <v>650</v>
       </c>
-      <c r="AB126" s="23"/>
-      <c r="AC126" s="27">
+      <c r="AB126" s="31"/>
+      <c r="AC126" s="31">
         <v>31</v>
       </c>
-      <c r="AD126" s="27">
+      <c r="AD126" s="31">
         <v>10</v>
       </c>
-      <c r="AE126" s="27">
+      <c r="AE126" s="31">
         <v>63</v>
       </c>
-      <c r="AF126" s="27">
-        <v>5</v>
-      </c>
-      <c r="AG126" s="23">
+      <c r="AF126" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG126" s="31">
         <v>4</v>
       </c>
-      <c r="AH126" s="23">
+      <c r="AH126" s="31">
         <v>682</v>
       </c>
-      <c r="AI126" s="23">
+      <c r="AI126" s="31">
         <v>0</v>
       </c>
-      <c r="AJ126" s="23"/>
-      <c r="AK126" s="23"/>
-      <c r="AL126" s="23"/>
-      <c r="AM126" s="23"/>
-      <c r="AN126" s="23"/>
-      <c r="AO126" s="23"/>
-      <c r="AP126" s="23"/>
-      <c r="AQ126" s="23"/>
-      <c r="AR126" s="23"/>
-      <c r="AS126" s="23"/>
-      <c r="AT126" s="23"/>
-      <c r="AU126" s="23"/>
-      <c r="AV126" s="23"/>
-      <c r="AW126" s="23"/>
-      <c r="AX126" s="23"/>
-      <c r="AY126" s="23"/>
-      <c r="AZ126" s="23"/>
-      <c r="BA126" s="23"/>
-      <c r="BB126" s="23"/>
-      <c r="BC126" s="23"/>
-      <c r="BD126" s="23"/>
-      <c r="BE126" s="23"/>
-      <c r="BF126" s="23"/>
-      <c r="BG126" s="23"/>
-      <c r="BH126" s="23"/>
-      <c r="BI126" s="23"/>
-      <c r="BJ126" s="23"/>
-      <c r="BK126" s="23"/>
-      <c r="BL126" s="23"/>
-      <c r="BM126" s="23"/>
-      <c r="BN126" s="23"/>
-      <c r="BO126" s="23"/>
-      <c r="BP126" s="23"/>
-      <c r="BQ126" s="23"/>
-      <c r="BR126" s="23"/>
-      <c r="BS126" s="23"/>
-      <c r="BT126" s="23"/>
-      <c r="BU126" s="23"/>
-      <c r="BV126" s="23"/>
-      <c r="BW126" s="23"/>
-      <c r="BX126" s="23"/>
-      <c r="BY126" s="23"/>
-      <c r="BZ126" s="23"/>
-      <c r="CA126" s="23"/>
-      <c r="CB126" s="23"/>
-      <c r="CC126" s="23"/>
-      <c r="CD126" s="23"/>
-      <c r="CE126" s="23"/>
-      <c r="CF126" s="23"/>
-      <c r="CG126" s="23"/>
-      <c r="CH126" s="23"/>
-      <c r="CI126" s="23"/>
-      <c r="CJ126" s="23"/>
-      <c r="CK126" s="23"/>
-    </row>
-    <row r="127" spans="1:89" ht="16">
-      <c r="A127" s="22">
+      <c r="AJ126" s="31"/>
+      <c r="AK126" s="31"/>
+      <c r="AL126" s="31"/>
+      <c r="AM126" s="31"/>
+      <c r="AN126" s="31"/>
+      <c r="AO126" s="31"/>
+      <c r="AP126" s="31"/>
+      <c r="AQ126" s="31"/>
+      <c r="AR126" s="31"/>
+      <c r="AS126" s="31"/>
+      <c r="AT126" s="31"/>
+      <c r="AU126" s="31"/>
+      <c r="AV126" s="31"/>
+      <c r="AW126" s="31"/>
+      <c r="AX126" s="31"/>
+      <c r="AY126" s="31"/>
+      <c r="AZ126" s="31"/>
+      <c r="BA126" s="31"/>
+      <c r="BB126" s="31"/>
+      <c r="BC126" s="31"/>
+      <c r="BD126" s="31"/>
+      <c r="BE126" s="31"/>
+      <c r="BF126" s="31"/>
+      <c r="BG126" s="31"/>
+      <c r="BH126" s="31"/>
+      <c r="BI126" s="31"/>
+      <c r="BJ126" s="31"/>
+      <c r="BK126" s="31"/>
+      <c r="BL126" s="31"/>
+      <c r="BM126" s="31"/>
+      <c r="BN126" s="31"/>
+      <c r="BO126" s="31"/>
+      <c r="BP126" s="31"/>
+      <c r="BQ126" s="31"/>
+      <c r="BR126" s="31"/>
+      <c r="BS126" s="31"/>
+      <c r="BT126" s="31"/>
+      <c r="BU126" s="31"/>
+      <c r="BV126" s="31"/>
+      <c r="BW126" s="31"/>
+      <c r="BX126" s="31"/>
+      <c r="BY126" s="31"/>
+      <c r="BZ126" s="31"/>
+      <c r="CA126" s="31"/>
+      <c r="CB126" s="31"/>
+      <c r="CC126" s="31"/>
+      <c r="CD126" s="31"/>
+      <c r="CE126" s="31"/>
+      <c r="CF126" s="31"/>
+      <c r="CG126" s="31"/>
+      <c r="CH126" s="31"/>
+      <c r="CI126" s="31"/>
+      <c r="CJ126" s="31"/>
+      <c r="CK126" s="31"/>
+    </row>
+    <row r="127" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A127" s="35">
         <v>16</v>
       </c>
-      <c r="B127" s="26">
+      <c r="B127" s="30">
         <v>14700</v>
       </c>
-      <c r="C127" s="26">
+      <c r="C127" s="30">
         <v>14700</v>
       </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="24">
+      <c r="D127" s="31"/>
+      <c r="E127" s="31">
         <v>31</v>
       </c>
-      <c r="F127" s="24">
+      <c r="F127" s="31">
         <v>10</v>
       </c>
-      <c r="G127" s="24">
+      <c r="G127" s="31">
         <v>63</v>
       </c>
-      <c r="H127" s="24">
+      <c r="H127" s="31">
         <v>6</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="31">
         <v>3</v>
       </c>
-      <c r="J127" s="12">
+      <c r="J127" s="31">
         <v>1</v>
       </c>
-      <c r="K127" s="12">
+      <c r="K127" s="31">
         <v>0</v>
       </c>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="23"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="12"/>
-      <c r="S127" s="12"/>
-      <c r="T127" s="23"/>
-      <c r="U127" s="23"/>
-      <c r="V127" s="23"/>
-      <c r="W127" s="23"/>
-      <c r="X127" s="23"/>
-      <c r="Y127" s="23"/>
-      <c r="Z127" s="23"/>
-      <c r="AA127" s="23"/>
-      <c r="AB127" s="23"/>
-      <c r="AC127" s="23"/>
-      <c r="AD127" s="23"/>
-      <c r="AE127" s="23"/>
-      <c r="AF127" s="23"/>
-      <c r="AG127" s="23"/>
-      <c r="AH127" s="23"/>
-      <c r="AI127" s="23"/>
-      <c r="AJ127" s="23"/>
-      <c r="AK127" s="23"/>
-      <c r="AL127" s="23"/>
-      <c r="AM127" s="23"/>
-      <c r="AN127" s="23"/>
-      <c r="AO127" s="23"/>
-      <c r="AP127" s="23"/>
-      <c r="AQ127" s="23"/>
-      <c r="AR127" s="23"/>
-      <c r="AS127" s="23"/>
-      <c r="AT127" s="23"/>
-      <c r="AU127" s="23"/>
-      <c r="AV127" s="23"/>
-      <c r="AW127" s="23"/>
-      <c r="AX127" s="23"/>
-      <c r="AY127" s="23"/>
-      <c r="AZ127" s="23"/>
-      <c r="BA127" s="23"/>
-      <c r="BB127" s="23"/>
-      <c r="BC127" s="23"/>
-      <c r="BD127" s="23"/>
-      <c r="BE127" s="23"/>
-      <c r="BF127" s="23"/>
-      <c r="BG127" s="23"/>
-      <c r="BH127" s="23"/>
-      <c r="BI127" s="23"/>
-      <c r="BJ127" s="23"/>
-      <c r="BK127" s="23"/>
-      <c r="BL127" s="23"/>
-      <c r="BM127" s="23"/>
-      <c r="BN127" s="23"/>
-      <c r="BO127" s="23"/>
-      <c r="BP127" s="23"/>
-      <c r="BQ127" s="23"/>
-      <c r="BR127" s="23"/>
-      <c r="BS127" s="23"/>
-      <c r="BT127" s="23"/>
-      <c r="BU127" s="23"/>
-      <c r="BV127" s="23"/>
-      <c r="BW127" s="23"/>
-      <c r="BX127" s="23"/>
-      <c r="BY127" s="23"/>
-      <c r="BZ127" s="23"/>
-      <c r="CA127" s="23"/>
-      <c r="CB127" s="23"/>
-      <c r="CC127" s="23"/>
-      <c r="CD127" s="23"/>
-      <c r="CE127" s="23"/>
-      <c r="CF127" s="23"/>
-      <c r="CG127" s="23"/>
-      <c r="CH127" s="23"/>
-      <c r="CI127" s="23"/>
-      <c r="CJ127" s="23"/>
-      <c r="CK127" s="23"/>
-    </row>
-    <row r="128" spans="1:89" ht="16">
-      <c r="A128" s="22">
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
+      <c r="N127" s="31"/>
+      <c r="O127" s="31"/>
+      <c r="P127" s="31"/>
+      <c r="Q127" s="31"/>
+      <c r="R127" s="31"/>
+      <c r="S127" s="31"/>
+      <c r="T127" s="31"/>
+      <c r="U127" s="31"/>
+      <c r="V127" s="31"/>
+      <c r="W127" s="31"/>
+      <c r="X127" s="31"/>
+      <c r="Y127" s="31"/>
+      <c r="Z127" s="31"/>
+      <c r="AA127" s="31"/>
+      <c r="AB127" s="31"/>
+      <c r="AC127" s="31"/>
+      <c r="AD127" s="31"/>
+      <c r="AE127" s="31"/>
+      <c r="AF127" s="31"/>
+      <c r="AG127" s="31"/>
+      <c r="AH127" s="31"/>
+      <c r="AI127" s="31"/>
+      <c r="AJ127" s="31"/>
+      <c r="AK127" s="31"/>
+      <c r="AL127" s="31"/>
+      <c r="AM127" s="31"/>
+      <c r="AN127" s="31"/>
+      <c r="AO127" s="31"/>
+      <c r="AP127" s="31"/>
+      <c r="AQ127" s="31"/>
+      <c r="AR127" s="31"/>
+      <c r="AS127" s="31"/>
+      <c r="AT127" s="31"/>
+      <c r="AU127" s="31"/>
+      <c r="AV127" s="31"/>
+      <c r="AW127" s="31"/>
+      <c r="AX127" s="31"/>
+      <c r="AY127" s="31"/>
+      <c r="AZ127" s="31"/>
+      <c r="BA127" s="31"/>
+      <c r="BB127" s="31"/>
+      <c r="BC127" s="31"/>
+      <c r="BD127" s="31"/>
+      <c r="BE127" s="31"/>
+      <c r="BF127" s="31"/>
+      <c r="BG127" s="31"/>
+      <c r="BH127" s="31"/>
+      <c r="BI127" s="31"/>
+      <c r="BJ127" s="31"/>
+      <c r="BK127" s="31"/>
+      <c r="BL127" s="31"/>
+      <c r="BM127" s="31"/>
+      <c r="BN127" s="31"/>
+      <c r="BO127" s="31"/>
+      <c r="BP127" s="31"/>
+      <c r="BQ127" s="31"/>
+      <c r="BR127" s="31"/>
+      <c r="BS127" s="31"/>
+      <c r="BT127" s="31"/>
+      <c r="BU127" s="31"/>
+      <c r="BV127" s="31"/>
+      <c r="BW127" s="31"/>
+      <c r="BX127" s="31"/>
+      <c r="BY127" s="31"/>
+      <c r="BZ127" s="31"/>
+      <c r="CA127" s="31"/>
+      <c r="CB127" s="31"/>
+      <c r="CC127" s="31"/>
+      <c r="CD127" s="31"/>
+      <c r="CE127" s="31"/>
+      <c r="CF127" s="31"/>
+      <c r="CG127" s="31"/>
+      <c r="CH127" s="31"/>
+      <c r="CI127" s="31"/>
+      <c r="CJ127" s="31"/>
+      <c r="CK127" s="31"/>
+    </row>
+    <row r="128" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A128" s="33">
         <v>17</v>
       </c>
-      <c r="B128" s="26">
+      <c r="B128" s="30">
         <v>15700</v>
       </c>
-      <c r="C128" s="26">
+      <c r="C128" s="30">
         <v>15700</v>
       </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24">
+      <c r="D128" s="31"/>
+      <c r="E128" s="31">
         <v>37</v>
       </c>
-      <c r="F128" s="24">
+      <c r="F128" s="31">
         <v>6</v>
       </c>
-      <c r="G128" s="24">
+      <c r="G128" s="31">
         <v>38</v>
       </c>
-      <c r="H128" s="24">
-        <v>5</v>
-      </c>
-      <c r="I128" s="12">
+      <c r="H128" s="31">
+        <v>5</v>
+      </c>
+      <c r="I128" s="31">
         <v>3206</v>
       </c>
-      <c r="J128" s="12">
+      <c r="J128" s="31">
         <v>519</v>
       </c>
-      <c r="K128" s="12">
+      <c r="K128" s="31">
         <v>485</v>
       </c>
-      <c r="L128" s="23"/>
-      <c r="M128" s="24">
+      <c r="L128" s="31"/>
+      <c r="M128" s="31">
         <v>31</v>
       </c>
-      <c r="N128" s="24">
+      <c r="N128" s="31">
         <v>10</v>
       </c>
-      <c r="O128" s="24">
+      <c r="O128" s="31">
         <v>38</v>
       </c>
-      <c r="P128" s="24">
-        <v>5</v>
-      </c>
-      <c r="Q128" s="12">
+      <c r="P128" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q128" s="31">
         <v>29</v>
       </c>
-      <c r="R128" s="12">
+      <c r="R128" s="31">
         <v>519</v>
       </c>
-      <c r="S128" s="12">
+      <c r="S128" s="31">
         <v>1</v>
       </c>
-      <c r="T128" s="23"/>
-      <c r="U128" s="24">
+      <c r="T128" s="31"/>
+      <c r="U128" s="31">
         <v>37</v>
       </c>
-      <c r="V128" s="24">
+      <c r="V128" s="31">
         <v>6</v>
       </c>
-      <c r="W128" s="24">
+      <c r="W128" s="31">
         <v>63</v>
       </c>
-      <c r="X128" s="24">
-        <v>5</v>
-      </c>
-      <c r="Y128" s="23">
+      <c r="X128" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y128" s="31">
         <v>3206</v>
       </c>
-      <c r="Z128" s="23">
+      <c r="Z128" s="31">
         <v>1647</v>
       </c>
-      <c r="AA128" s="23">
+      <c r="AA128" s="31">
         <v>1357</v>
       </c>
-      <c r="AB128" s="23"/>
-      <c r="AC128" s="24">
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31">
         <v>31</v>
       </c>
-      <c r="AD128" s="24">
+      <c r="AD128" s="31">
         <v>10</v>
       </c>
-      <c r="AE128" s="24">
+      <c r="AE128" s="31">
         <v>63</v>
       </c>
-      <c r="AF128" s="24">
-        <v>5</v>
-      </c>
-      <c r="AG128" s="23">
+      <c r="AF128" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG128" s="31">
         <v>29</v>
       </c>
-      <c r="AH128" s="23">
+      <c r="AH128" s="31">
         <v>1647</v>
       </c>
-      <c r="AI128" s="23">
+      <c r="AI128" s="31">
         <v>0</v>
       </c>
-      <c r="AJ128" s="23"/>
-      <c r="AK128" s="23"/>
-      <c r="AL128" s="23"/>
-      <c r="AM128" s="23"/>
-      <c r="AN128" s="23"/>
-      <c r="AO128" s="23"/>
-      <c r="AP128" s="23"/>
-      <c r="AQ128" s="23"/>
-      <c r="AR128" s="23"/>
-      <c r="AS128" s="23"/>
-      <c r="AT128" s="23"/>
-      <c r="AU128" s="23"/>
-      <c r="AV128" s="23"/>
-      <c r="AW128" s="23"/>
-      <c r="AX128" s="23"/>
-      <c r="AY128" s="23"/>
-      <c r="AZ128" s="23"/>
-      <c r="BA128" s="23"/>
-      <c r="BB128" s="23"/>
-      <c r="BC128" s="23"/>
-      <c r="BD128" s="23"/>
-      <c r="BE128" s="23"/>
-      <c r="BF128" s="23"/>
-      <c r="BG128" s="23"/>
-      <c r="BH128" s="23"/>
-      <c r="BI128" s="23"/>
-      <c r="BJ128" s="23"/>
-      <c r="BK128" s="23"/>
-      <c r="BL128" s="23"/>
-      <c r="BM128" s="23"/>
-      <c r="BN128" s="23"/>
-      <c r="BO128" s="23"/>
-      <c r="BP128" s="23"/>
-      <c r="BQ128" s="23"/>
-      <c r="BR128" s="23"/>
-      <c r="BS128" s="23"/>
-      <c r="BT128" s="23"/>
-      <c r="BU128" s="23"/>
-      <c r="BV128" s="23"/>
-      <c r="BW128" s="23"/>
-      <c r="BX128" s="23"/>
-      <c r="BY128" s="23"/>
-      <c r="BZ128" s="23"/>
-      <c r="CA128" s="23"/>
-      <c r="CB128" s="23"/>
-      <c r="CC128" s="23"/>
-      <c r="CD128" s="23"/>
-      <c r="CE128" s="23"/>
-      <c r="CF128" s="23"/>
-      <c r="CG128" s="23"/>
-      <c r="CH128" s="23"/>
-      <c r="CI128" s="23"/>
-      <c r="CJ128" s="23"/>
-      <c r="CK128" s="23"/>
-    </row>
-    <row r="129" spans="1:89" ht="16">
-      <c r="A129" s="22">
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="31"/>
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="31"/>
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="31"/>
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="31"/>
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="31"/>
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="31"/>
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="31"/>
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="31"/>
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="31"/>
+      <c r="BS128" s="31"/>
+      <c r="BT128" s="31"/>
+      <c r="BU128" s="31"/>
+      <c r="BV128" s="31"/>
+      <c r="BW128" s="31"/>
+      <c r="BX128" s="31"/>
+      <c r="BY128" s="31"/>
+      <c r="BZ128" s="31"/>
+      <c r="CA128" s="31"/>
+      <c r="CB128" s="31"/>
+      <c r="CC128" s="31"/>
+      <c r="CD128" s="31"/>
+      <c r="CE128" s="31"/>
+      <c r="CF128" s="31"/>
+      <c r="CG128" s="31"/>
+      <c r="CH128" s="31"/>
+      <c r="CI128" s="31"/>
+      <c r="CJ128" s="31"/>
+      <c r="CK128" s="31"/>
+    </row>
+    <row r="129" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A129" s="33">
         <v>17</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="30">
         <v>15800</v>
       </c>
-      <c r="C129" s="26">
+      <c r="C129" s="30">
         <v>15800</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24">
+      <c r="D129" s="31"/>
+      <c r="E129" s="31">
         <v>37</v>
       </c>
-      <c r="F129" s="24">
+      <c r="F129" s="31">
         <v>6</v>
       </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="12">
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31">
         <v>3</v>
       </c>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="23"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="23"/>
-      <c r="P129" s="23"/>
-      <c r="Q129" s="12"/>
-      <c r="R129" s="12"/>
-      <c r="S129" s="12"/>
-      <c r="T129" s="23"/>
-      <c r="U129" s="23"/>
-      <c r="V129" s="23"/>
-      <c r="W129" s="23"/>
-      <c r="X129" s="23"/>
-      <c r="Y129" s="23"/>
-      <c r="Z129" s="23"/>
-      <c r="AA129" s="23"/>
-      <c r="AB129" s="23"/>
-      <c r="AC129" s="23"/>
-      <c r="AD129" s="23"/>
-      <c r="AE129" s="23"/>
-      <c r="AF129" s="23"/>
-      <c r="AG129" s="23"/>
-      <c r="AH129" s="23"/>
-      <c r="AI129" s="23"/>
-      <c r="AJ129" s="23"/>
-      <c r="AK129" s="23"/>
-      <c r="AL129" s="23"/>
-      <c r="AM129" s="23"/>
-      <c r="AN129" s="23"/>
-      <c r="AO129" s="23"/>
-      <c r="AP129" s="23"/>
-      <c r="AQ129" s="23"/>
-      <c r="AR129" s="23"/>
-      <c r="AS129" s="23"/>
-      <c r="AT129" s="23"/>
-      <c r="AU129" s="23"/>
-      <c r="AV129" s="23"/>
-      <c r="AW129" s="23"/>
-      <c r="AX129" s="23"/>
-      <c r="AY129" s="23"/>
-      <c r="AZ129" s="23"/>
-      <c r="BA129" s="23"/>
-      <c r="BB129" s="23"/>
-      <c r="BC129" s="23"/>
-      <c r="BD129" s="23"/>
-      <c r="BE129" s="23"/>
-      <c r="BF129" s="23"/>
-      <c r="BG129" s="23"/>
-      <c r="BH129" s="23"/>
-      <c r="BI129" s="23"/>
-      <c r="BJ129" s="23"/>
-      <c r="BK129" s="23"/>
-      <c r="BL129" s="23"/>
-      <c r="BM129" s="23"/>
-      <c r="BN129" s="23"/>
-      <c r="BO129" s="23"/>
-      <c r="BP129" s="23"/>
-      <c r="BQ129" s="23"/>
-      <c r="BR129" s="23"/>
-      <c r="BS129" s="23"/>
-      <c r="BT129" s="23"/>
-      <c r="BU129" s="23"/>
-      <c r="BV129" s="23"/>
-      <c r="BW129" s="23"/>
-      <c r="BX129" s="23"/>
-      <c r="BY129" s="23"/>
-      <c r="BZ129" s="23"/>
-      <c r="CA129" s="23"/>
-      <c r="CB129" s="23"/>
-      <c r="CC129" s="23"/>
-      <c r="CD129" s="23"/>
-      <c r="CE129" s="23"/>
-      <c r="CF129" s="23"/>
-      <c r="CG129" s="23"/>
-      <c r="CH129" s="23"/>
-      <c r="CI129" s="23"/>
-      <c r="CJ129" s="23"/>
-      <c r="CK129" s="23"/>
-    </row>
-    <row r="130" spans="1:89" ht="16">
-      <c r="A130" s="22">
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="31"/>
+      <c r="M129" s="31"/>
+      <c r="N129" s="31"/>
+      <c r="O129" s="31"/>
+      <c r="P129" s="31"/>
+      <c r="Q129" s="31"/>
+      <c r="R129" s="31"/>
+      <c r="S129" s="31"/>
+      <c r="T129" s="31"/>
+      <c r="U129" s="31"/>
+      <c r="V129" s="31"/>
+      <c r="W129" s="31"/>
+      <c r="X129" s="31"/>
+      <c r="Y129" s="31"/>
+      <c r="Z129" s="31"/>
+      <c r="AA129" s="31"/>
+      <c r="AB129" s="31"/>
+      <c r="AC129" s="31"/>
+      <c r="AD129" s="31"/>
+      <c r="AE129" s="31"/>
+      <c r="AF129" s="31"/>
+      <c r="AG129" s="31"/>
+      <c r="AH129" s="31"/>
+      <c r="AI129" s="31"/>
+      <c r="AJ129" s="31"/>
+      <c r="AK129" s="31"/>
+      <c r="AL129" s="31"/>
+      <c r="AM129" s="31"/>
+      <c r="AN129" s="31"/>
+      <c r="AO129" s="31"/>
+      <c r="AP129" s="31"/>
+      <c r="AQ129" s="31"/>
+      <c r="AR129" s="31"/>
+      <c r="AS129" s="31"/>
+      <c r="AT129" s="31"/>
+      <c r="AU129" s="31"/>
+      <c r="AV129" s="31"/>
+      <c r="AW129" s="31"/>
+      <c r="AX129" s="31"/>
+      <c r="AY129" s="31"/>
+      <c r="AZ129" s="31"/>
+      <c r="BA129" s="31"/>
+      <c r="BB129" s="31"/>
+      <c r="BC129" s="31"/>
+      <c r="BD129" s="31"/>
+      <c r="BE129" s="31"/>
+      <c r="BF129" s="31"/>
+      <c r="BG129" s="31"/>
+      <c r="BH129" s="31"/>
+      <c r="BI129" s="31"/>
+      <c r="BJ129" s="31"/>
+      <c r="BK129" s="31"/>
+      <c r="BL129" s="31"/>
+      <c r="BM129" s="31"/>
+      <c r="BN129" s="31"/>
+      <c r="BO129" s="31"/>
+      <c r="BP129" s="31"/>
+      <c r="BQ129" s="31"/>
+      <c r="BR129" s="31"/>
+      <c r="BS129" s="31"/>
+      <c r="BT129" s="31"/>
+      <c r="BU129" s="31"/>
+      <c r="BV129" s="31"/>
+      <c r="BW129" s="31"/>
+      <c r="BX129" s="31"/>
+      <c r="BY129" s="31"/>
+      <c r="BZ129" s="31"/>
+      <c r="CA129" s="31"/>
+      <c r="CB129" s="31"/>
+      <c r="CC129" s="31"/>
+      <c r="CD129" s="31"/>
+      <c r="CE129" s="31"/>
+      <c r="CF129" s="31"/>
+      <c r="CG129" s="31"/>
+      <c r="CH129" s="31"/>
+      <c r="CI129" s="31"/>
+      <c r="CJ129" s="31"/>
+      <c r="CK129" s="31"/>
+    </row>
+    <row r="130" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A130" s="33">
         <v>17</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B130" s="30">
         <v>15900</v>
       </c>
-      <c r="C130" s="26">
+      <c r="C130" s="30">
         <v>15900</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="24">
+      <c r="D130" s="31"/>
+      <c r="E130" s="31">
         <v>37</v>
       </c>
-      <c r="F130" s="24">
+      <c r="F130" s="31">
         <v>6</v>
       </c>
-      <c r="G130" s="24">
+      <c r="G130" s="31">
         <v>38</v>
       </c>
-      <c r="H130" s="24">
-        <v>5</v>
-      </c>
-      <c r="I130" s="12">
+      <c r="H130" s="31">
+        <v>5</v>
+      </c>
+      <c r="I130" s="31">
         <v>15170</v>
       </c>
-      <c r="J130" s="12">
+      <c r="J130" s="31">
         <v>2551</v>
       </c>
-      <c r="K130" s="12">
+      <c r="K130" s="31">
         <v>2469</v>
       </c>
-      <c r="L130" s="23"/>
-      <c r="M130" s="24">
+      <c r="L130" s="31"/>
+      <c r="M130" s="31">
         <v>31</v>
       </c>
-      <c r="N130" s="24">
+      <c r="N130" s="31">
         <v>10</v>
       </c>
-      <c r="O130" s="24">
+      <c r="O130" s="31">
         <v>38</v>
       </c>
-      <c r="P130" s="24">
-        <v>5</v>
-      </c>
-      <c r="Q130" s="12">
+      <c r="P130" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q130" s="31">
         <v>240</v>
       </c>
-      <c r="R130" s="12">
+      <c r="R130" s="31">
         <v>2551</v>
       </c>
-      <c r="S130" s="12">
+      <c r="S130" s="31">
         <v>31</v>
       </c>
-      <c r="T130" s="23"/>
-      <c r="U130" s="24">
+      <c r="T130" s="31"/>
+      <c r="U130" s="31">
         <v>37</v>
       </c>
-      <c r="V130" s="24">
+      <c r="V130" s="31">
         <v>6</v>
       </c>
-      <c r="W130" s="24">
+      <c r="W130" s="31">
         <v>63</v>
       </c>
-      <c r="X130" s="24">
-        <v>5</v>
-      </c>
-      <c r="Y130" s="23">
+      <c r="X130" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y130" s="31">
         <v>15170</v>
       </c>
-      <c r="Z130" s="23">
+      <c r="Z130" s="31">
         <v>6148</v>
       </c>
-      <c r="AA130" s="23">
+      <c r="AA130" s="31">
         <v>5999</v>
       </c>
-      <c r="AB130" s="23"/>
-      <c r="AC130" s="24">
+      <c r="AB130" s="31"/>
+      <c r="AC130" s="31">
         <v>31</v>
       </c>
-      <c r="AD130" s="24">
+      <c r="AD130" s="31">
         <v>10</v>
       </c>
-      <c r="AE130" s="24">
+      <c r="AE130" s="31">
         <v>63</v>
       </c>
-      <c r="AF130" s="24">
-        <v>5</v>
-      </c>
-      <c r="AG130" s="23">
+      <c r="AF130" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG130" s="31">
         <v>240</v>
       </c>
-      <c r="AH130" s="23">
+      <c r="AH130" s="31">
         <v>6148</v>
       </c>
-      <c r="AI130" s="23">
+      <c r="AI130" s="31">
         <v>59</v>
       </c>
-      <c r="AJ130" s="23"/>
-      <c r="AK130" s="23"/>
-      <c r="AL130" s="23"/>
-      <c r="AM130" s="23"/>
-      <c r="AN130" s="23"/>
-      <c r="AO130" s="23"/>
-      <c r="AP130" s="23"/>
-      <c r="AQ130" s="23"/>
-      <c r="AR130" s="23"/>
-      <c r="AS130" s="23"/>
-      <c r="AT130" s="23"/>
-      <c r="AU130" s="23"/>
-      <c r="AV130" s="23"/>
-      <c r="AW130" s="23"/>
-      <c r="AX130" s="23"/>
-      <c r="AY130" s="23"/>
-      <c r="AZ130" s="23"/>
-      <c r="BA130" s="23"/>
-      <c r="BB130" s="23"/>
-      <c r="BC130" s="23"/>
-      <c r="BD130" s="23"/>
-      <c r="BE130" s="23"/>
-      <c r="BF130" s="23"/>
-      <c r="BG130" s="23"/>
-      <c r="BH130" s="23"/>
-      <c r="BI130" s="23"/>
-      <c r="BJ130" s="23"/>
-      <c r="BK130" s="23"/>
-      <c r="BL130" s="23"/>
-      <c r="BM130" s="23"/>
-      <c r="BN130" s="23"/>
-      <c r="BO130" s="23"/>
-      <c r="BP130" s="23"/>
-      <c r="BQ130" s="23"/>
-      <c r="BR130" s="23"/>
-      <c r="BS130" s="23"/>
-      <c r="BT130" s="23"/>
-      <c r="BU130" s="23"/>
-      <c r="BV130" s="23"/>
-      <c r="BW130" s="23"/>
-      <c r="BX130" s="23"/>
-      <c r="BY130" s="23"/>
-      <c r="BZ130" s="23"/>
-      <c r="CA130" s="23"/>
-      <c r="CB130" s="23"/>
-      <c r="CC130" s="23"/>
-      <c r="CD130" s="23"/>
-      <c r="CE130" s="23"/>
-      <c r="CF130" s="23"/>
-      <c r="CG130" s="23"/>
-      <c r="CH130" s="23"/>
-      <c r="CI130" s="23"/>
-      <c r="CJ130" s="23"/>
-      <c r="CK130" s="23"/>
-    </row>
-    <row r="131" spans="1:89" ht="16">
-      <c r="A131" s="22">
+      <c r="AJ130" s="31"/>
+      <c r="AK130" s="31"/>
+      <c r="AL130" s="31"/>
+      <c r="AM130" s="31"/>
+      <c r="AN130" s="31"/>
+      <c r="AO130" s="31"/>
+      <c r="AP130" s="31"/>
+      <c r="AQ130" s="31"/>
+      <c r="AR130" s="31"/>
+      <c r="AS130" s="31"/>
+      <c r="AT130" s="31"/>
+      <c r="AU130" s="31"/>
+      <c r="AV130" s="31"/>
+      <c r="AW130" s="31"/>
+      <c r="AX130" s="31"/>
+      <c r="AY130" s="31"/>
+      <c r="AZ130" s="31"/>
+      <c r="BA130" s="31"/>
+      <c r="BB130" s="31"/>
+      <c r="BC130" s="31"/>
+      <c r="BD130" s="31"/>
+      <c r="BE130" s="31"/>
+      <c r="BF130" s="31"/>
+      <c r="BG130" s="31"/>
+      <c r="BH130" s="31"/>
+      <c r="BI130" s="31"/>
+      <c r="BJ130" s="31"/>
+      <c r="BK130" s="31"/>
+      <c r="BL130" s="31"/>
+      <c r="BM130" s="31"/>
+      <c r="BN130" s="31"/>
+      <c r="BO130" s="31"/>
+      <c r="BP130" s="31"/>
+      <c r="BQ130" s="31"/>
+      <c r="BR130" s="31"/>
+      <c r="BS130" s="31"/>
+      <c r="BT130" s="31"/>
+      <c r="BU130" s="31"/>
+      <c r="BV130" s="31"/>
+      <c r="BW130" s="31"/>
+      <c r="BX130" s="31"/>
+      <c r="BY130" s="31"/>
+      <c r="BZ130" s="31"/>
+      <c r="CA130" s="31"/>
+      <c r="CB130" s="31"/>
+      <c r="CC130" s="31"/>
+      <c r="CD130" s="31"/>
+      <c r="CE130" s="31"/>
+      <c r="CF130" s="31"/>
+      <c r="CG130" s="31"/>
+      <c r="CH130" s="31"/>
+      <c r="CI130" s="31"/>
+      <c r="CJ130" s="31"/>
+      <c r="CK130" s="31"/>
+    </row>
+    <row r="131" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A131" s="33">
         <v>17</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="30">
         <v>16000</v>
       </c>
-      <c r="C131" s="26">
+      <c r="C131" s="30">
         <v>16000</v>
       </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="24">
+      <c r="D131" s="31"/>
+      <c r="E131" s="31">
         <v>37</v>
       </c>
-      <c r="F131" s="24">
+      <c r="F131" s="31">
         <v>6</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="31">
         <v>38</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="31">
         <v>6</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="31">
         <v>791</v>
       </c>
-      <c r="J131" s="12">
+      <c r="J131" s="31">
         <v>579</v>
       </c>
-      <c r="K131" s="12">
+      <c r="K131" s="31">
         <v>528</v>
       </c>
-      <c r="L131" s="23"/>
-      <c r="M131" s="24">
+      <c r="L131" s="31"/>
+      <c r="M131" s="31">
         <v>37</v>
       </c>
-      <c r="N131" s="24">
+      <c r="N131" s="31">
         <v>6</v>
       </c>
-      <c r="O131" s="24">
+      <c r="O131" s="31">
         <v>63</v>
       </c>
-      <c r="P131" s="24">
+      <c r="P131" s="31">
         <v>6</v>
       </c>
-      <c r="Q131" s="12">
+      <c r="Q131" s="31">
         <v>791</v>
       </c>
-      <c r="R131" s="12">
+      <c r="R131" s="31">
         <v>216</v>
       </c>
-      <c r="S131" s="12">
+      <c r="S131" s="31">
         <v>171</v>
       </c>
-      <c r="T131" s="23"/>
-      <c r="U131" s="23"/>
-      <c r="V131" s="23"/>
-      <c r="W131" s="23"/>
-      <c r="X131" s="23"/>
-      <c r="Y131" s="23"/>
-      <c r="Z131" s="23"/>
-      <c r="AA131" s="23"/>
-      <c r="AB131" s="23"/>
-      <c r="AC131" s="23"/>
-      <c r="AD131" s="23"/>
-      <c r="AE131" s="23"/>
-      <c r="AF131" s="23"/>
-      <c r="AG131" s="23"/>
-      <c r="AH131" s="23"/>
-      <c r="AI131" s="23"/>
-      <c r="AJ131" s="23"/>
-      <c r="AK131" s="23"/>
-      <c r="AL131" s="23"/>
-      <c r="AM131" s="23"/>
-      <c r="AN131" s="23"/>
-      <c r="AO131" s="23"/>
-      <c r="AP131" s="23"/>
-      <c r="AQ131" s="23"/>
-      <c r="AR131" s="23"/>
-      <c r="AS131" s="23"/>
-      <c r="AT131" s="23"/>
-      <c r="AU131" s="23"/>
-      <c r="AV131" s="23"/>
-      <c r="AW131" s="23"/>
-      <c r="AX131" s="23"/>
-      <c r="AY131" s="23"/>
-      <c r="AZ131" s="23"/>
-      <c r="BA131" s="23"/>
-      <c r="BB131" s="23"/>
-      <c r="BC131" s="23"/>
-      <c r="BD131" s="23"/>
-      <c r="BE131" s="23"/>
-      <c r="BF131" s="23"/>
-      <c r="BG131" s="23"/>
-      <c r="BH131" s="23"/>
-      <c r="BI131" s="23"/>
-      <c r="BJ131" s="23"/>
-      <c r="BK131" s="23"/>
-      <c r="BL131" s="23"/>
-      <c r="BM131" s="23"/>
-      <c r="BN131" s="23"/>
-      <c r="BO131" s="23"/>
-      <c r="BP131" s="23"/>
-      <c r="BQ131" s="23"/>
-      <c r="BR131" s="23"/>
-      <c r="BS131" s="23"/>
-      <c r="BT131" s="23"/>
-      <c r="BU131" s="23"/>
-      <c r="BV131" s="23"/>
-      <c r="BW131" s="23"/>
-      <c r="BX131" s="23"/>
-      <c r="BY131" s="23"/>
-      <c r="BZ131" s="23"/>
-      <c r="CA131" s="23"/>
-      <c r="CB131" s="23"/>
-      <c r="CC131" s="23"/>
-      <c r="CD131" s="23"/>
-      <c r="CE131" s="23"/>
-      <c r="CF131" s="23"/>
-      <c r="CG131" s="23"/>
-      <c r="CH131" s="23"/>
-      <c r="CI131" s="23"/>
-      <c r="CJ131" s="23"/>
-      <c r="CK131" s="23"/>
-    </row>
-    <row r="132" spans="1:89" ht="16">
-      <c r="A132" s="22">
+      <c r="T131" s="31"/>
+      <c r="U131" s="31"/>
+      <c r="V131" s="31"/>
+      <c r="W131" s="31"/>
+      <c r="X131" s="31"/>
+      <c r="Y131" s="31"/>
+      <c r="Z131" s="31"/>
+      <c r="AA131" s="31"/>
+      <c r="AB131" s="31"/>
+      <c r="AC131" s="31"/>
+      <c r="AD131" s="31"/>
+      <c r="AE131" s="31"/>
+      <c r="AF131" s="31"/>
+      <c r="AG131" s="31"/>
+      <c r="AH131" s="31"/>
+      <c r="AI131" s="31"/>
+      <c r="AJ131" s="31"/>
+      <c r="AK131" s="31"/>
+      <c r="AL131" s="31"/>
+      <c r="AM131" s="31"/>
+      <c r="AN131" s="31"/>
+      <c r="AO131" s="31"/>
+      <c r="AP131" s="31"/>
+      <c r="AQ131" s="31"/>
+      <c r="AR131" s="31"/>
+      <c r="AS131" s="31"/>
+      <c r="AT131" s="31"/>
+      <c r="AU131" s="31"/>
+      <c r="AV131" s="31"/>
+      <c r="AW131" s="31"/>
+      <c r="AX131" s="31"/>
+      <c r="AY131" s="31"/>
+      <c r="AZ131" s="31"/>
+      <c r="BA131" s="31"/>
+      <c r="BB131" s="31"/>
+      <c r="BC131" s="31"/>
+      <c r="BD131" s="31"/>
+      <c r="BE131" s="31"/>
+      <c r="BF131" s="31"/>
+      <c r="BG131" s="31"/>
+      <c r="BH131" s="31"/>
+      <c r="BI131" s="31"/>
+      <c r="BJ131" s="31"/>
+      <c r="BK131" s="31"/>
+      <c r="BL131" s="31"/>
+      <c r="BM131" s="31"/>
+      <c r="BN131" s="31"/>
+      <c r="BO131" s="31"/>
+      <c r="BP131" s="31"/>
+      <c r="BQ131" s="31"/>
+      <c r="BR131" s="31"/>
+      <c r="BS131" s="31"/>
+      <c r="BT131" s="31"/>
+      <c r="BU131" s="31"/>
+      <c r="BV131" s="31"/>
+      <c r="BW131" s="31"/>
+      <c r="BX131" s="31"/>
+      <c r="BY131" s="31"/>
+      <c r="BZ131" s="31"/>
+      <c r="CA131" s="31"/>
+      <c r="CB131" s="31"/>
+      <c r="CC131" s="31"/>
+      <c r="CD131" s="31"/>
+      <c r="CE131" s="31"/>
+      <c r="CF131" s="31"/>
+      <c r="CG131" s="31"/>
+      <c r="CH131" s="31"/>
+      <c r="CI131" s="31"/>
+      <c r="CJ131" s="31"/>
+      <c r="CK131" s="31"/>
+    </row>
+    <row r="132" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A132" s="33">
         <v>17</v>
       </c>
-      <c r="B132" s="26">
+      <c r="B132" s="30">
         <v>16100</v>
       </c>
-      <c r="C132" s="26">
+      <c r="C132" s="30">
         <v>16100</v>
       </c>
-      <c r="D132" s="23"/>
-      <c r="E132" s="24">
+      <c r="D132" s="31"/>
+      <c r="E132" s="31">
         <v>31</v>
       </c>
-      <c r="F132" s="24">
+      <c r="F132" s="31">
         <v>10</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="31">
         <v>38</v>
       </c>
-      <c r="H132" s="24">
+      <c r="H132" s="31">
         <v>6</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="31">
         <v>0</v>
       </c>
-      <c r="J132" s="12">
+      <c r="J132" s="31">
         <v>388</v>
       </c>
-      <c r="K132" s="12">
+      <c r="K132" s="31">
         <v>0</v>
       </c>
-      <c r="L132" s="23"/>
-      <c r="M132" s="24">
+      <c r="L132" s="31"/>
+      <c r="M132" s="31">
         <v>31</v>
       </c>
-      <c r="N132" s="24">
+      <c r="N132" s="31">
         <v>10</v>
       </c>
-      <c r="O132" s="24">
+      <c r="O132" s="31">
         <v>63</v>
       </c>
-      <c r="P132" s="24">
+      <c r="P132" s="31">
         <v>6</v>
       </c>
-      <c r="Q132" s="12">
+      <c r="Q132" s="31">
         <v>0</v>
       </c>
-      <c r="R132" s="12">
+      <c r="R132" s="31">
         <v>59</v>
       </c>
-      <c r="S132" s="12">
+      <c r="S132" s="31">
         <v>0</v>
       </c>
-      <c r="T132" s="23"/>
-      <c r="U132" s="24">
+      <c r="T132" s="31"/>
+      <c r="U132" s="31">
         <v>37</v>
       </c>
-      <c r="V132" s="24">
+      <c r="V132" s="31">
         <v>10</v>
       </c>
-      <c r="W132" s="24">
+      <c r="W132" s="31">
         <v>38</v>
       </c>
-      <c r="X132" s="24">
+      <c r="X132" s="31">
         <v>6</v>
       </c>
-      <c r="Y132" s="23">
+      <c r="Y132" s="31">
         <v>504</v>
       </c>
-      <c r="Z132" s="23">
+      <c r="Z132" s="31">
         <v>388</v>
       </c>
-      <c r="AA132" s="23">
+      <c r="AA132" s="31">
         <v>316</v>
       </c>
-      <c r="AB132" s="23"/>
-      <c r="AC132" s="24">
+      <c r="AB132" s="31"/>
+      <c r="AC132" s="31">
         <v>37</v>
       </c>
-      <c r="AD132" s="24">
+      <c r="AD132" s="31">
         <v>10</v>
       </c>
-      <c r="AE132" s="24">
+      <c r="AE132" s="31">
         <v>63</v>
       </c>
-      <c r="AF132" s="24">
+      <c r="AF132" s="31">
         <v>6</v>
       </c>
-      <c r="AG132" s="23">
+      <c r="AG132" s="31">
         <v>504</v>
       </c>
-      <c r="AH132" s="23">
+      <c r="AH132" s="31">
         <v>59</v>
       </c>
-      <c r="AI132" s="23">
+      <c r="AI132" s="31">
         <v>54</v>
       </c>
-      <c r="AJ132" s="23"/>
-      <c r="AK132" s="23"/>
-      <c r="AL132" s="23"/>
-      <c r="AM132" s="23"/>
-      <c r="AN132" s="23"/>
-      <c r="AO132" s="23"/>
-      <c r="AP132" s="23"/>
-      <c r="AQ132" s="23"/>
-      <c r="AR132" s="23"/>
-      <c r="AS132" s="23"/>
-      <c r="AT132" s="23"/>
-      <c r="AU132" s="23"/>
-      <c r="AV132" s="23"/>
-      <c r="AW132" s="23"/>
-      <c r="AX132" s="23"/>
-      <c r="AY132" s="23"/>
-      <c r="AZ132" s="23"/>
-      <c r="BA132" s="23"/>
-      <c r="BB132" s="23"/>
-      <c r="BC132" s="23"/>
-      <c r="BD132" s="23"/>
-      <c r="BE132" s="23"/>
-      <c r="BF132" s="23"/>
-      <c r="BG132" s="23"/>
-      <c r="BH132" s="23"/>
-      <c r="BI132" s="23"/>
-      <c r="BJ132" s="23"/>
-      <c r="BK132" s="23"/>
-      <c r="BL132" s="23"/>
-      <c r="BM132" s="23"/>
-      <c r="BN132" s="23"/>
-      <c r="BO132" s="23"/>
-      <c r="BP132" s="23"/>
-      <c r="BQ132" s="23"/>
-      <c r="BR132" s="23"/>
-      <c r="BS132" s="23"/>
-      <c r="BT132" s="23"/>
-      <c r="BU132" s="23"/>
-      <c r="BV132" s="23"/>
-      <c r="BW132" s="23"/>
-      <c r="BX132" s="23"/>
-      <c r="BY132" s="23"/>
-      <c r="BZ132" s="23"/>
-      <c r="CA132" s="23"/>
-      <c r="CB132" s="23"/>
-      <c r="CC132" s="23"/>
-      <c r="CD132" s="23"/>
-      <c r="CE132" s="23"/>
-      <c r="CF132" s="23"/>
-      <c r="CG132" s="23"/>
-      <c r="CH132" s="23"/>
-      <c r="CI132" s="23"/>
-      <c r="CJ132" s="23"/>
-      <c r="CK132" s="23"/>
-    </row>
-    <row r="133" spans="1:89" ht="16">
-      <c r="A133" s="22">
+      <c r="AJ132" s="31"/>
+      <c r="AK132" s="31"/>
+      <c r="AL132" s="31"/>
+      <c r="AM132" s="31"/>
+      <c r="AN132" s="31"/>
+      <c r="AO132" s="31"/>
+      <c r="AP132" s="31"/>
+      <c r="AQ132" s="31"/>
+      <c r="AR132" s="31"/>
+      <c r="AS132" s="31"/>
+      <c r="AT132" s="31"/>
+      <c r="AU132" s="31"/>
+      <c r="AV132" s="31"/>
+      <c r="AW132" s="31"/>
+      <c r="AX132" s="31"/>
+      <c r="AY132" s="31"/>
+      <c r="AZ132" s="31"/>
+      <c r="BA132" s="31"/>
+      <c r="BB132" s="31"/>
+      <c r="BC132" s="31"/>
+      <c r="BD132" s="31"/>
+      <c r="BE132" s="31"/>
+      <c r="BF132" s="31"/>
+      <c r="BG132" s="31"/>
+      <c r="BH132" s="31"/>
+      <c r="BI132" s="31"/>
+      <c r="BJ132" s="31"/>
+      <c r="BK132" s="31"/>
+      <c r="BL132" s="31"/>
+      <c r="BM132" s="31"/>
+      <c r="BN132" s="31"/>
+      <c r="BO132" s="31"/>
+      <c r="BP132" s="31"/>
+      <c r="BQ132" s="31"/>
+      <c r="BR132" s="31"/>
+      <c r="BS132" s="31"/>
+      <c r="BT132" s="31"/>
+      <c r="BU132" s="31"/>
+      <c r="BV132" s="31"/>
+      <c r="BW132" s="31"/>
+      <c r="BX132" s="31"/>
+      <c r="BY132" s="31"/>
+      <c r="BZ132" s="31"/>
+      <c r="CA132" s="31"/>
+      <c r="CB132" s="31"/>
+      <c r="CC132" s="31"/>
+      <c r="CD132" s="31"/>
+      <c r="CE132" s="31"/>
+      <c r="CF132" s="31"/>
+      <c r="CG132" s="31"/>
+      <c r="CH132" s="31"/>
+      <c r="CI132" s="31"/>
+      <c r="CJ132" s="31"/>
+      <c r="CK132" s="31"/>
+    </row>
+    <row r="133" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A133" s="33">
         <v>17</v>
       </c>
-      <c r="B133" s="26">
+      <c r="B133" s="30">
         <v>16200</v>
       </c>
-      <c r="C133" s="26">
+      <c r="C133" s="30">
         <v>16200</v>
       </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="24">
+      <c r="D133" s="31"/>
+      <c r="E133" s="31">
         <v>37</v>
       </c>
-      <c r="F133" s="24">
+      <c r="F133" s="31">
         <v>6</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="31">
         <v>38</v>
       </c>
-      <c r="H133" s="24">
-        <v>5</v>
-      </c>
-      <c r="I133" s="12">
+      <c r="H133" s="31">
+        <v>5</v>
+      </c>
+      <c r="I133" s="31">
         <v>53191</v>
       </c>
-      <c r="J133" s="12">
+      <c r="J133" s="31">
         <v>16615</v>
       </c>
-      <c r="K133" s="12">
+      <c r="K133" s="31">
         <v>15215</v>
       </c>
-      <c r="L133" s="23"/>
-      <c r="M133" s="24">
+      <c r="L133" s="31"/>
+      <c r="M133" s="31">
         <v>31</v>
       </c>
-      <c r="N133" s="24">
+      <c r="N133" s="31">
         <v>10</v>
       </c>
-      <c r="O133" s="24">
+      <c r="O133" s="31">
         <v>38</v>
       </c>
-      <c r="P133" s="24">
-        <v>5</v>
-      </c>
-      <c r="Q133" s="12">
+      <c r="P133" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q133" s="31">
         <v>15693</v>
       </c>
-      <c r="R133" s="12">
+      <c r="R133" s="31">
         <v>16615</v>
       </c>
-      <c r="S133" s="12">
+      <c r="S133" s="31">
         <v>629</v>
       </c>
-      <c r="T133" s="23"/>
-      <c r="U133" s="24">
+      <c r="T133" s="31"/>
+      <c r="U133" s="31">
         <v>37</v>
       </c>
-      <c r="V133" s="24">
+      <c r="V133" s="31">
         <v>6</v>
       </c>
-      <c r="W133" s="24">
+      <c r="W133" s="31">
         <v>63</v>
       </c>
-      <c r="X133" s="24">
-        <v>5</v>
-      </c>
-      <c r="Y133" s="23">
+      <c r="X133" s="31">
+        <v>5</v>
+      </c>
+      <c r="Y133" s="31">
         <v>53191</v>
       </c>
-      <c r="Z133" s="23">
+      <c r="Z133" s="31">
         <v>46194</v>
       </c>
-      <c r="AA133" s="23">
+      <c r="AA133" s="31">
         <v>34283</v>
       </c>
-      <c r="AB133" s="23"/>
-      <c r="AC133" s="24">
+      <c r="AB133" s="31"/>
+      <c r="AC133" s="31">
         <v>31</v>
       </c>
-      <c r="AD133" s="24">
+      <c r="AD133" s="31">
         <v>10</v>
       </c>
-      <c r="AE133" s="24">
+      <c r="AE133" s="31">
         <v>63</v>
       </c>
-      <c r="AF133" s="24">
-        <v>5</v>
-      </c>
-      <c r="AG133" s="23">
+      <c r="AF133" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG133" s="31">
         <v>15693</v>
       </c>
-      <c r="AH133" s="23">
+      <c r="AH133" s="31">
         <v>46194</v>
       </c>
-      <c r="AI133" s="23">
+      <c r="AI133" s="31">
         <v>9202</v>
       </c>
-      <c r="AJ133" s="23"/>
-      <c r="AK133" s="23"/>
-      <c r="AL133" s="23"/>
-      <c r="AM133" s="23"/>
-      <c r="AN133" s="23"/>
-      <c r="AO133" s="23"/>
-      <c r="AP133" s="23"/>
-      <c r="AQ133" s="23"/>
-      <c r="AR133" s="23"/>
-      <c r="AS133" s="23"/>
-      <c r="AT133" s="23"/>
-      <c r="AU133" s="23"/>
-      <c r="AV133" s="23"/>
-      <c r="AW133" s="23"/>
-      <c r="AX133" s="23"/>
-      <c r="AY133" s="23"/>
-      <c r="AZ133" s="23"/>
-      <c r="BA133" s="23"/>
-      <c r="BB133" s="23"/>
-      <c r="BC133" s="23"/>
-      <c r="BD133" s="23"/>
-      <c r="BE133" s="23"/>
-      <c r="BF133" s="23"/>
-      <c r="BG133" s="23"/>
-      <c r="BH133" s="23"/>
-      <c r="BI133" s="23"/>
-      <c r="BJ133" s="23"/>
-      <c r="BK133" s="23"/>
-      <c r="BL133" s="23"/>
-      <c r="BM133" s="23"/>
-      <c r="BN133" s="23"/>
-      <c r="BO133" s="23"/>
-      <c r="BP133" s="23"/>
-      <c r="BQ133" s="23"/>
-      <c r="BR133" s="23"/>
-      <c r="BS133" s="23"/>
-      <c r="BT133" s="23"/>
-      <c r="BU133" s="23"/>
-      <c r="BV133" s="23"/>
-      <c r="BW133" s="23"/>
-      <c r="BX133" s="23"/>
-      <c r="BY133" s="23"/>
-      <c r="BZ133" s="23"/>
-      <c r="CA133" s="23"/>
-      <c r="CB133" s="23"/>
-      <c r="CC133" s="23"/>
-      <c r="CD133" s="23"/>
-      <c r="CE133" s="23"/>
-      <c r="CF133" s="23"/>
-      <c r="CG133" s="23"/>
-      <c r="CH133" s="23"/>
-      <c r="CI133" s="23"/>
-      <c r="CJ133" s="23"/>
-      <c r="CK133" s="23"/>
-    </row>
-    <row r="134" spans="1:89" ht="16">
-      <c r="A134" s="22">
+      <c r="AJ133" s="31"/>
+      <c r="AK133" s="31"/>
+      <c r="AL133" s="31"/>
+      <c r="AM133" s="31"/>
+      <c r="AN133" s="31"/>
+      <c r="AO133" s="31"/>
+      <c r="AP133" s="31"/>
+      <c r="AQ133" s="31"/>
+      <c r="AR133" s="31"/>
+      <c r="AS133" s="31"/>
+      <c r="AT133" s="31"/>
+      <c r="AU133" s="31"/>
+      <c r="AV133" s="31"/>
+      <c r="AW133" s="31"/>
+      <c r="AX133" s="31"/>
+      <c r="AY133" s="31"/>
+      <c r="AZ133" s="31"/>
+      <c r="BA133" s="31"/>
+      <c r="BB133" s="31"/>
+      <c r="BC133" s="31"/>
+      <c r="BD133" s="31"/>
+      <c r="BE133" s="31"/>
+      <c r="BF133" s="31"/>
+      <c r="BG133" s="31"/>
+      <c r="BH133" s="31"/>
+      <c r="BI133" s="31"/>
+      <c r="BJ133" s="31"/>
+      <c r="BK133" s="31"/>
+      <c r="BL133" s="31"/>
+      <c r="BM133" s="31"/>
+      <c r="BN133" s="31"/>
+      <c r="BO133" s="31"/>
+      <c r="BP133" s="31"/>
+      <c r="BQ133" s="31"/>
+      <c r="BR133" s="31"/>
+      <c r="BS133" s="31"/>
+      <c r="BT133" s="31"/>
+      <c r="BU133" s="31"/>
+      <c r="BV133" s="31"/>
+      <c r="BW133" s="31"/>
+      <c r="BX133" s="31"/>
+      <c r="BY133" s="31"/>
+      <c r="BZ133" s="31"/>
+      <c r="CA133" s="31"/>
+      <c r="CB133" s="31"/>
+      <c r="CC133" s="31"/>
+      <c r="CD133" s="31"/>
+      <c r="CE133" s="31"/>
+      <c r="CF133" s="31"/>
+      <c r="CG133" s="31"/>
+      <c r="CH133" s="31"/>
+      <c r="CI133" s="31"/>
+      <c r="CJ133" s="31"/>
+      <c r="CK133" s="31"/>
+    </row>
+    <row r="134" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A134" s="33">
         <v>17</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="30">
         <v>16300</v>
       </c>
-      <c r="C134" s="26">
+      <c r="C134" s="30">
         <v>16300</v>
       </c>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24">
+      <c r="D134" s="31"/>
+      <c r="E134" s="31">
         <v>37</v>
       </c>
-      <c r="F134" s="24">
+      <c r="F134" s="31">
         <v>6</v>
       </c>
-      <c r="G134" s="24">
+      <c r="G134" s="31">
         <v>38</v>
       </c>
-      <c r="H134" s="24">
+      <c r="H134" s="31">
         <v>6</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="31">
         <v>12</v>
       </c>
-      <c r="J134" s="12">
+      <c r="J134" s="31">
         <v>22</v>
       </c>
-      <c r="K134" s="12">
+      <c r="K134" s="31">
         <v>10</v>
       </c>
-      <c r="L134" s="23"/>
-      <c r="M134" s="24">
+      <c r="L134" s="31"/>
+      <c r="M134" s="31">
         <v>37</v>
       </c>
-      <c r="N134" s="24">
+      <c r="N134" s="31">
         <v>6</v>
       </c>
-      <c r="O134" s="24">
+      <c r="O134" s="31">
         <v>63</v>
       </c>
-      <c r="P134" s="24">
+      <c r="P134" s="31">
         <v>6</v>
       </c>
-      <c r="Q134" s="12">
+      <c r="Q134" s="31">
         <v>12</v>
       </c>
-      <c r="R134" s="12">
+      <c r="R134" s="31">
         <v>43</v>
       </c>
-      <c r="S134" s="12">
+      <c r="S134" s="31">
         <v>1</v>
       </c>
-      <c r="T134" s="23"/>
-      <c r="U134" s="23"/>
-      <c r="V134" s="23"/>
-      <c r="W134" s="23"/>
-      <c r="X134" s="23"/>
-      <c r="Y134" s="23"/>
-      <c r="Z134" s="23"/>
-      <c r="AA134" s="23"/>
-      <c r="AB134" s="23"/>
-      <c r="AC134" s="23"/>
-      <c r="AD134" s="23"/>
-      <c r="AE134" s="23"/>
-      <c r="AF134" s="23"/>
-      <c r="AG134" s="23"/>
-      <c r="AH134" s="23"/>
-      <c r="AI134" s="23"/>
-      <c r="AJ134" s="23"/>
-      <c r="AK134" s="23"/>
-      <c r="AL134" s="23"/>
-      <c r="AM134" s="23"/>
-      <c r="AN134" s="23"/>
-      <c r="AO134" s="23"/>
-      <c r="AP134" s="23"/>
-      <c r="AQ134" s="23"/>
-      <c r="AR134" s="23"/>
-      <c r="AS134" s="23"/>
-      <c r="AT134" s="23"/>
-      <c r="AU134" s="23"/>
-      <c r="AV134" s="23"/>
-      <c r="AW134" s="23"/>
-      <c r="AX134" s="23"/>
-      <c r="AY134" s="23"/>
-      <c r="AZ134" s="23"/>
-      <c r="BA134" s="23"/>
-      <c r="BB134" s="23"/>
-      <c r="BC134" s="23"/>
-      <c r="BD134" s="23"/>
-      <c r="BE134" s="23"/>
-      <c r="BF134" s="23"/>
-      <c r="BG134" s="23"/>
-      <c r="BH134" s="23"/>
-      <c r="BI134" s="23"/>
-      <c r="BJ134" s="23"/>
-      <c r="BK134" s="23"/>
-      <c r="BL134" s="23"/>
-      <c r="BM134" s="23"/>
-      <c r="BN134" s="23"/>
-      <c r="BO134" s="23"/>
-      <c r="BP134" s="23"/>
-      <c r="BQ134" s="23"/>
-      <c r="BR134" s="23"/>
-      <c r="BS134" s="23"/>
-      <c r="BT134" s="23"/>
-      <c r="BU134" s="23"/>
-      <c r="BV134" s="23"/>
-      <c r="BW134" s="23"/>
-      <c r="BX134" s="23"/>
-      <c r="BY134" s="23"/>
-      <c r="BZ134" s="23"/>
-      <c r="CA134" s="23"/>
-      <c r="CB134" s="23"/>
-      <c r="CC134" s="23"/>
-      <c r="CD134" s="23"/>
-      <c r="CE134" s="23"/>
-      <c r="CF134" s="23"/>
-      <c r="CG134" s="23"/>
-      <c r="CH134" s="23"/>
-      <c r="CI134" s="23"/>
-      <c r="CJ134" s="23"/>
-      <c r="CK134" s="23"/>
-    </row>
-    <row r="135" spans="1:89" ht="16">
-      <c r="A135" s="22">
+      <c r="T134" s="31"/>
+      <c r="U134" s="31"/>
+      <c r="V134" s="31"/>
+      <c r="W134" s="31"/>
+      <c r="X134" s="31"/>
+      <c r="Y134" s="31"/>
+      <c r="Z134" s="31"/>
+      <c r="AA134" s="31"/>
+      <c r="AB134" s="31"/>
+      <c r="AC134" s="31"/>
+      <c r="AD134" s="31"/>
+      <c r="AE134" s="31"/>
+      <c r="AF134" s="31"/>
+      <c r="AG134" s="31"/>
+      <c r="AH134" s="31"/>
+      <c r="AI134" s="31"/>
+      <c r="AJ134" s="31"/>
+      <c r="AK134" s="31"/>
+      <c r="AL134" s="31"/>
+      <c r="AM134" s="31"/>
+      <c r="AN134" s="31"/>
+      <c r="AO134" s="31"/>
+      <c r="AP134" s="31"/>
+      <c r="AQ134" s="31"/>
+      <c r="AR134" s="31"/>
+      <c r="AS134" s="31"/>
+      <c r="AT134" s="31"/>
+      <c r="AU134" s="31"/>
+      <c r="AV134" s="31"/>
+      <c r="AW134" s="31"/>
+      <c r="AX134" s="31"/>
+      <c r="AY134" s="31"/>
+      <c r="AZ134" s="31"/>
+      <c r="BA134" s="31"/>
+      <c r="BB134" s="31"/>
+      <c r="BC134" s="31"/>
+      <c r="BD134" s="31"/>
+      <c r="BE134" s="31"/>
+      <c r="BF134" s="31"/>
+      <c r="BG134" s="31"/>
+      <c r="BH134" s="31"/>
+      <c r="BI134" s="31"/>
+      <c r="BJ134" s="31"/>
+      <c r="BK134" s="31"/>
+      <c r="BL134" s="31"/>
+      <c r="BM134" s="31"/>
+      <c r="BN134" s="31"/>
+      <c r="BO134" s="31"/>
+      <c r="BP134" s="31"/>
+      <c r="BQ134" s="31"/>
+      <c r="BR134" s="31"/>
+      <c r="BS134" s="31"/>
+      <c r="BT134" s="31"/>
+      <c r="BU134" s="31"/>
+      <c r="BV134" s="31"/>
+      <c r="BW134" s="31"/>
+      <c r="BX134" s="31"/>
+      <c r="BY134" s="31"/>
+      <c r="BZ134" s="31"/>
+      <c r="CA134" s="31"/>
+      <c r="CB134" s="31"/>
+      <c r="CC134" s="31"/>
+      <c r="CD134" s="31"/>
+      <c r="CE134" s="31"/>
+      <c r="CF134" s="31"/>
+      <c r="CG134" s="31"/>
+      <c r="CH134" s="31"/>
+      <c r="CI134" s="31"/>
+      <c r="CJ134" s="31"/>
+      <c r="CK134" s="31"/>
+    </row>
+    <row r="135" spans="1:89" s="32" customFormat="1" ht="16">
+      <c r="A135" s="33">
         <v>17</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="30">
         <v>16400</v>
       </c>
-      <c r="C135" s="26">
+      <c r="C135" s="30">
         <v>16400</v>
       </c>
-      <c r="D135" s="23"/>
-      <c r="E135" s="24">
+      <c r="D135" s="31"/>
+      <c r="E135" s="31">
         <v>37</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="31">
         <v>6</v>
       </c>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="23"/>
-      <c r="M135" s="23"/>
-      <c r="N135" s="23"/>
-      <c r="O135" s="23"/>
-      <c r="P135" s="23"/>
-      <c r="Q135" s="12"/>
-      <c r="R135" s="12"/>
-      <c r="S135" s="12"/>
-      <c r="T135" s="23"/>
-      <c r="U135" s="23"/>
-      <c r="V135" s="23"/>
-      <c r="W135" s="23"/>
-      <c r="X135" s="23"/>
-      <c r="Y135" s="23"/>
-      <c r="Z135" s="23"/>
-      <c r="AA135" s="23"/>
-      <c r="AB135" s="23"/>
-      <c r="AC135" s="23"/>
-      <c r="AD135" s="23"/>
-      <c r="AE135" s="23"/>
-      <c r="AF135" s="23"/>
-      <c r="AG135" s="23"/>
-      <c r="AH135" s="23"/>
-      <c r="AI135" s="23"/>
-      <c r="AJ135" s="23"/>
-      <c r="AK135" s="23"/>
-      <c r="AL135" s="23"/>
-      <c r="AM135" s="23"/>
-      <c r="AN135" s="23"/>
-      <c r="AO135" s="23"/>
-      <c r="AP135" s="23"/>
-      <c r="AQ135" s="23"/>
-      <c r="AR135" s="23"/>
-      <c r="AS135" s="23"/>
-      <c r="AT135" s="23"/>
-      <c r="AU135" s="23"/>
-      <c r="AV135" s="23"/>
-      <c r="AW135" s="23"/>
-      <c r="AX135" s="23"/>
-      <c r="AY135" s="23"/>
-      <c r="AZ135" s="23"/>
-      <c r="BA135" s="23"/>
-      <c r="BB135" s="23"/>
-      <c r="BC135" s="23"/>
-      <c r="BD135" s="23"/>
-      <c r="BE135" s="23"/>
-      <c r="BF135" s="23"/>
-      <c r="BG135" s="23"/>
-      <c r="BH135" s="23"/>
-      <c r="BI135" s="23"/>
-      <c r="BJ135" s="23"/>
-      <c r="BK135" s="23"/>
-      <c r="BL135" s="23"/>
-      <c r="BM135" s="23"/>
-      <c r="BN135" s="23"/>
-      <c r="BO135" s="23"/>
-      <c r="BP135" s="23"/>
-      <c r="BQ135" s="23"/>
-      <c r="BR135" s="23"/>
-      <c r="BS135" s="23"/>
-      <c r="BT135" s="23"/>
-      <c r="BU135" s="23"/>
-      <c r="BV135" s="23"/>
-      <c r="BW135" s="23"/>
-      <c r="BX135" s="23"/>
-      <c r="BY135" s="23"/>
-      <c r="BZ135" s="23"/>
-      <c r="CA135" s="23"/>
-      <c r="CB135" s="23"/>
-      <c r="CC135" s="23"/>
-      <c r="CD135" s="23"/>
-      <c r="CE135" s="23"/>
-      <c r="CF135" s="23"/>
-      <c r="CG135" s="23"/>
-      <c r="CH135" s="23"/>
-      <c r="CI135" s="23"/>
-      <c r="CJ135" s="23"/>
-      <c r="CK135" s="23"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="31"/>
+      <c r="M135" s="31"/>
+      <c r="N135" s="31"/>
+      <c r="O135" s="31"/>
+      <c r="P135" s="31"/>
+      <c r="Q135" s="31"/>
+      <c r="R135" s="31"/>
+      <c r="S135" s="31"/>
+      <c r="T135" s="31"/>
+      <c r="U135" s="31"/>
+      <c r="V135" s="31"/>
+      <c r="W135" s="31"/>
+      <c r="X135" s="31"/>
+      <c r="Y135" s="31"/>
+      <c r="Z135" s="31"/>
+      <c r="AA135" s="31"/>
+      <c r="AB135" s="31"/>
+      <c r="AC135" s="31"/>
+      <c r="AD135" s="31"/>
+      <c r="AE135" s="31"/>
+      <c r="AF135" s="31"/>
+      <c r="AG135" s="31"/>
+      <c r="AH135" s="31"/>
+      <c r="AI135" s="31"/>
+      <c r="AJ135" s="31"/>
+      <c r="AK135" s="31"/>
+      <c r="AL135" s="31"/>
+      <c r="AM135" s="31"/>
+      <c r="AN135" s="31"/>
+      <c r="AO135" s="31"/>
+      <c r="AP135" s="31"/>
+      <c r="AQ135" s="31"/>
+      <c r="AR135" s="31"/>
+      <c r="AS135" s="31"/>
+      <c r="AT135" s="31"/>
+      <c r="AU135" s="31"/>
+      <c r="AV135" s="31"/>
+      <c r="AW135" s="31"/>
+      <c r="AX135" s="31"/>
+      <c r="AY135" s="31"/>
+      <c r="AZ135" s="31"/>
+      <c r="BA135" s="31"/>
+      <c r="BB135" s="31"/>
+      <c r="BC135" s="31"/>
+      <c r="BD135" s="31"/>
+      <c r="BE135" s="31"/>
+      <c r="BF135" s="31"/>
+      <c r="BG135" s="31"/>
+      <c r="BH135" s="31"/>
+      <c r="BI135" s="31"/>
+      <c r="BJ135" s="31"/>
+      <c r="BK135" s="31"/>
+      <c r="BL135" s="31"/>
+      <c r="BM135" s="31"/>
+      <c r="BN135" s="31"/>
+      <c r="BO135" s="31"/>
+      <c r="BP135" s="31"/>
+      <c r="BQ135" s="31"/>
+      <c r="BR135" s="31"/>
+      <c r="BS135" s="31"/>
+      <c r="BT135" s="31"/>
+      <c r="BU135" s="31"/>
+      <c r="BV135" s="31"/>
+      <c r="BW135" s="31"/>
+      <c r="BX135" s="31"/>
+      <c r="BY135" s="31"/>
+      <c r="BZ135" s="31"/>
+      <c r="CA135" s="31"/>
+      <c r="CB135" s="31"/>
+      <c r="CC135" s="31"/>
+      <c r="CD135" s="31"/>
+      <c r="CE135" s="31"/>
+      <c r="CF135" s="31"/>
+      <c r="CG135" s="31"/>
+      <c r="CH135" s="31"/>
+      <c r="CI135" s="31"/>
+      <c r="CJ135" s="31"/>
+      <c r="CK135" s="31"/>
     </row>
     <row r="136" spans="1:89" ht="16">
       <c r="A136" s="10">
@@ -32852,20 +32880,5079 @@
     <mergeCell ref="BI1:BM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586CFEBE-FC0E-ED42-8DEB-490D28AAB3DE}">
+  <dimension ref="A1:BF151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:58" ht="15.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="38"/>
+    </row>
+    <row r="2" spans="1:58" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6300</v>
+      </c>
+      <c r="C3">
+        <v>6300</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>100700</v>
+      </c>
+      <c r="C4">
+        <v>100700</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>101800</v>
+      </c>
+      <c r="C5">
+        <v>101800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>101300</v>
+      </c>
+      <c r="C6">
+        <v>101300</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6400</v>
+      </c>
+      <c r="C8">
+        <v>6400</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>9600</v>
+      </c>
+      <c r="C9">
+        <v>9600</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6600</v>
+      </c>
+      <c r="C10">
+        <v>6600</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>101700</v>
+      </c>
+      <c r="C11">
+        <v>101700</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>102600</v>
+      </c>
+      <c r="C12">
+        <v>102600</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>9700</v>
+      </c>
+      <c r="C13">
+        <v>9700</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>103400</v>
+      </c>
+      <c r="C14">
+        <v>103400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>103500</v>
+      </c>
+      <c r="C15">
+        <v>103500</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>104400</v>
+      </c>
+      <c r="C16">
+        <v>104400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>6700</v>
+      </c>
+      <c r="C17">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>9800</v>
+      </c>
+      <c r="C18">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>16900</v>
+      </c>
+      <c r="C19">
+        <v>16900</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>17000</v>
+      </c>
+      <c r="C20">
+        <v>17000</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>17100</v>
+      </c>
+      <c r="C21">
+        <v>17100</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>17400</v>
+      </c>
+      <c r="C22">
+        <v>17400</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>101600</v>
+      </c>
+      <c r="C23">
+        <v>101600</v>
+      </c>
+      <c r="E23">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>104600</v>
+      </c>
+      <c r="C24">
+        <v>104600</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>204800</v>
+      </c>
+      <c r="C25">
+        <v>204800</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>9900</v>
+      </c>
+      <c r="C26">
+        <v>9900</v>
+      </c>
+      <c r="E26">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1019</v>
+      </c>
+      <c r="C27">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>100800</v>
+      </c>
+      <c r="C28">
+        <v>100800</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1200</v>
+      </c>
+      <c r="C29">
+        <v>1200</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>49</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>26</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>4500</v>
+      </c>
+      <c r="C30">
+        <v>4500</v>
+      </c>
+      <c r="E30">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>104700</v>
+      </c>
+      <c r="C31">
+        <v>104700</v>
+      </c>
+      <c r="E31">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>104900</v>
+      </c>
+      <c r="C32">
+        <v>104900</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>10000</v>
+      </c>
+      <c r="E33">
+        <v>49</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>1100</v>
+      </c>
+      <c r="C34">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>102100</v>
+      </c>
+      <c r="C35">
+        <v>102100</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>3900</v>
+      </c>
+      <c r="C36">
+        <v>3900</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>5000</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>4300</v>
+      </c>
+      <c r="C38">
+        <v>4300</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>105200</v>
+      </c>
+      <c r="C39">
+        <v>105200</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>31</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>2200</v>
+      </c>
+      <c r="C40">
+        <v>2200</v>
+      </c>
+      <c r="E40">
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>3800</v>
+      </c>
+      <c r="C41">
+        <v>3800</v>
+      </c>
+      <c r="E41">
+        <v>31</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>32</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>4100</v>
+      </c>
+      <c r="C42">
+        <v>4100</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>31</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>32</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>4200</v>
+      </c>
+      <c r="C43">
+        <v>4200</v>
+      </c>
+      <c r="E43">
+        <v>32</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>5100</v>
+      </c>
+      <c r="C44">
+        <v>5100</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>105201</v>
+      </c>
+      <c r="C45">
+        <v>105201</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>5300</v>
+      </c>
+      <c r="C46">
+        <v>5300</v>
+      </c>
+      <c r="E46">
+        <v>31</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>105400</v>
+      </c>
+      <c r="C47">
+        <v>105400</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>5500</v>
+      </c>
+      <c r="C48">
+        <v>5500</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>5600</v>
+      </c>
+      <c r="C49">
+        <v>5600</v>
+      </c>
+      <c r="E49">
+        <v>32</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>5800</v>
+      </c>
+      <c r="C50">
+        <v>5800</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>33</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>6000</v>
+      </c>
+      <c r="C51">
+        <v>6000</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>31</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>32</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>6100</v>
+      </c>
+      <c r="C52">
+        <v>6100</v>
+      </c>
+      <c r="E52">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>107400</v>
+      </c>
+      <c r="C53">
+        <v>107400</v>
+      </c>
+      <c r="E53">
+        <v>31</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>7500</v>
+      </c>
+      <c r="C54">
+        <v>7500</v>
+      </c>
+      <c r="E54">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>7600</v>
+      </c>
+      <c r="C55">
+        <v>7600</v>
+      </c>
+      <c r="E55">
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>7700</v>
+      </c>
+      <c r="C56">
+        <v>7700</v>
+      </c>
+      <c r="E56">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>33</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>7800</v>
+      </c>
+      <c r="C57">
+        <v>7800</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>107900</v>
+      </c>
+      <c r="C58">
+        <v>107900</v>
+      </c>
+      <c r="E58">
+        <v>32</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>8000</v>
+      </c>
+      <c r="C59">
+        <v>8000</v>
+      </c>
+      <c r="E59">
+        <v>32</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>108400</v>
+      </c>
+      <c r="C60">
+        <v>108400</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>27</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>18700</v>
+      </c>
+      <c r="C61">
+        <v>18700</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>19</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>37</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>26</v>
+      </c>
+      <c r="R61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>18800</v>
+      </c>
+      <c r="C62">
+        <v>18800</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>32</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>19</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>31</v>
+      </c>
+      <c r="P62">
+        <v>7</v>
+      </c>
+      <c r="Q62">
+        <v>32</v>
+      </c>
+      <c r="R62">
+        <v>7</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>31</v>
+      </c>
+      <c r="U62">
+        <v>7</v>
+      </c>
+      <c r="V62">
+        <v>26</v>
+      </c>
+      <c r="W62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>18900</v>
+      </c>
+      <c r="C63">
+        <v>18900</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>32</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>31</v>
+      </c>
+      <c r="K63">
+        <v>7</v>
+      </c>
+      <c r="L63">
+        <v>26</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>19000</v>
+      </c>
+      <c r="C64">
+        <v>19000</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>38</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>19100</v>
+      </c>
+      <c r="C65">
+        <v>19100</v>
+      </c>
+      <c r="E65">
+        <v>31</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>38</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>31</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>32</v>
+      </c>
+      <c r="M65">
+        <v>8</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>31</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <v>26</v>
+      </c>
+      <c r="R65">
+        <v>8</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>55</v>
+      </c>
+      <c r="U65">
+        <v>4</v>
+      </c>
+      <c r="V65">
+        <v>26</v>
+      </c>
+      <c r="W65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66">
+        <v>19200</v>
+      </c>
+      <c r="C66">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>19300</v>
+      </c>
+      <c r="C67">
+        <v>19300</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>31</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>26</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>7</v>
+      </c>
+      <c r="L67">
+        <v>32</v>
+      </c>
+      <c r="M67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>37</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>26</v>
+      </c>
+      <c r="R67">
+        <v>8</v>
+      </c>
+      <c r="T67">
+        <v>37</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>38</v>
+      </c>
+      <c r="W67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>19400</v>
+      </c>
+      <c r="C68">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>19500</v>
+      </c>
+      <c r="C69">
+        <v>19500</v>
+      </c>
+      <c r="E69">
+        <v>55</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>55</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>31</v>
+      </c>
+      <c r="P69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>37</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>19600</v>
+      </c>
+      <c r="C70">
+        <v>19600</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>37</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>19</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>32</v>
+      </c>
+      <c r="M70">
+        <v>8</v>
+      </c>
+      <c r="O70">
+        <v>37</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+      <c r="Q70">
+        <v>63</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>19</v>
+      </c>
+      <c r="U70">
+        <v>10</v>
+      </c>
+      <c r="V70">
+        <v>63</v>
+      </c>
+      <c r="W70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>19700</v>
+      </c>
+      <c r="C71">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>8800</v>
+      </c>
+      <c r="C72">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>8900</v>
+      </c>
+      <c r="C73">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>9000</v>
+      </c>
+      <c r="C74">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>9100</v>
+      </c>
+      <c r="C75">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>9200</v>
+      </c>
+      <c r="C76">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>9300</v>
+      </c>
+      <c r="C77">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>9400</v>
+      </c>
+      <c r="C78">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>9500</v>
+      </c>
+      <c r="C79">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>10400</v>
+      </c>
+      <c r="C80">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>10500</v>
+      </c>
+      <c r="C81">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>10600</v>
+      </c>
+      <c r="C82">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>10700</v>
+      </c>
+      <c r="C83">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>10800</v>
+      </c>
+      <c r="C84">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>10900</v>
+      </c>
+      <c r="C85">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>11000</v>
+      </c>
+      <c r="C86">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>11100</v>
+      </c>
+      <c r="C87">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>20400</v>
+      </c>
+      <c r="C88">
+        <v>20400</v>
+      </c>
+      <c r="E88">
+        <v>31</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88">
+        <v>32</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="J88">
+        <v>55</v>
+      </c>
+      <c r="K88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <v>32</v>
+      </c>
+      <c r="M88">
+        <v>8</v>
+      </c>
+      <c r="O88">
+        <v>31</v>
+      </c>
+      <c r="P88">
+        <v>8</v>
+      </c>
+      <c r="Q88">
+        <v>62</v>
+      </c>
+      <c r="R88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>20500</v>
+      </c>
+      <c r="C89">
+        <v>20500</v>
+      </c>
+      <c r="E89">
+        <v>31</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="J89">
+        <v>55</v>
+      </c>
+      <c r="K89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>20600</v>
+      </c>
+      <c r="C90">
+        <v>20600</v>
+      </c>
+      <c r="E90">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <v>32</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>55</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>32</v>
+      </c>
+      <c r="M90">
+        <v>8</v>
+      </c>
+      <c r="O90">
+        <v>31</v>
+      </c>
+      <c r="P90">
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <v>62</v>
+      </c>
+      <c r="R90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>20700</v>
+      </c>
+      <c r="C91">
+        <v>20700</v>
+      </c>
+      <c r="E91">
+        <v>31</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>63</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>31</v>
+      </c>
+      <c r="K91">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>32</v>
+      </c>
+      <c r="M91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>20800</v>
+      </c>
+      <c r="C92">
+        <v>20800</v>
+      </c>
+      <c r="E92">
+        <v>31</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92">
+        <v>32</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>31</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+      <c r="L92">
+        <v>62</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>20900</v>
+      </c>
+      <c r="C93">
+        <v>20900</v>
+      </c>
+      <c r="E93">
+        <v>37</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>32</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94">
+        <v>21000</v>
+      </c>
+      <c r="C94">
+        <v>20900</v>
+      </c>
+      <c r="E94">
+        <v>37</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <v>31</v>
+      </c>
+      <c r="K94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>21100</v>
+      </c>
+      <c r="C95">
+        <v>21100</v>
+      </c>
+      <c r="E95">
+        <v>31</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>32</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>37</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>32</v>
+      </c>
+      <c r="M95">
+        <v>8</v>
+      </c>
+      <c r="O95">
+        <v>37</v>
+      </c>
+      <c r="P95">
+        <v>4</v>
+      </c>
+      <c r="Q95">
+        <v>62</v>
+      </c>
+      <c r="R95">
+        <v>6</v>
+      </c>
+      <c r="T95">
+        <v>55</v>
+      </c>
+      <c r="U95">
+        <v>7</v>
+      </c>
+      <c r="V95">
+        <v>32</v>
+      </c>
+      <c r="W95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>26400</v>
+      </c>
+      <c r="C96">
+        <v>26400</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
+      </c>
+      <c r="F96">
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <v>63</v>
+      </c>
+      <c r="H96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>31</v>
+      </c>
+      <c r="K96">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <v>38</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>37</v>
+      </c>
+      <c r="P96">
+        <v>5</v>
+      </c>
+      <c r="Q96">
+        <v>38</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>26800</v>
+      </c>
+      <c r="C97">
+        <v>26800</v>
+      </c>
+      <c r="E97">
+        <v>37</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>63</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>31</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>63</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="O97">
+        <v>37</v>
+      </c>
+      <c r="P97">
+        <v>5</v>
+      </c>
+      <c r="Q97">
+        <v>38</v>
+      </c>
+      <c r="R97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>31</v>
+      </c>
+      <c r="U97">
+        <v>9</v>
+      </c>
+      <c r="V97">
+        <v>38</v>
+      </c>
+      <c r="W97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>26200</v>
+      </c>
+      <c r="C98">
+        <v>26200</v>
+      </c>
+      <c r="E98">
+        <v>37</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>63</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>37</v>
+      </c>
+      <c r="K98">
+        <v>6</v>
+      </c>
+      <c r="L98">
+        <v>63</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>26300</v>
+      </c>
+      <c r="C99">
+        <v>26300</v>
+      </c>
+      <c r="E99">
+        <v>37</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>63</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>31</v>
+      </c>
+      <c r="K99">
+        <v>9</v>
+      </c>
+      <c r="L99">
+        <v>63</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>37</v>
+      </c>
+      <c r="P99">
+        <v>5</v>
+      </c>
+      <c r="Q99">
+        <v>38</v>
+      </c>
+      <c r="R99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>31</v>
+      </c>
+      <c r="U99">
+        <v>9</v>
+      </c>
+      <c r="V99">
+        <v>38</v>
+      </c>
+      <c r="W99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>26000</v>
+      </c>
+      <c r="C100">
+        <v>26000</v>
+      </c>
+      <c r="E100">
+        <v>37</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>63</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>37</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100">
+        <v>32</v>
+      </c>
+      <c r="M100">
+        <v>9</v>
+      </c>
+      <c r="O100">
+        <v>31</v>
+      </c>
+      <c r="P100">
+        <v>9</v>
+      </c>
+      <c r="Q100">
+        <v>63</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <v>27900</v>
+      </c>
+      <c r="C101">
+        <v>27900</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
+      </c>
+      <c r="F101">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>63</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>37</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101">
+        <v>63</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>37</v>
+      </c>
+      <c r="P101">
+        <v>6</v>
+      </c>
+      <c r="Q101">
+        <v>63</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>26700</v>
+      </c>
+      <c r="C102">
+        <v>26700</v>
+      </c>
+      <c r="E102">
+        <v>37</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>63</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="J102">
+        <v>37</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>38</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <v>31</v>
+      </c>
+      <c r="P102">
+        <v>8</v>
+      </c>
+      <c r="Q102">
+        <v>63</v>
+      </c>
+      <c r="R102">
+        <v>4</v>
+      </c>
+      <c r="T102">
+        <v>31</v>
+      </c>
+      <c r="U102">
+        <v>8</v>
+      </c>
+      <c r="V102">
+        <v>38</v>
+      </c>
+      <c r="W102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>26500</v>
+      </c>
+      <c r="C103">
+        <v>26500</v>
+      </c>
+      <c r="E103">
+        <v>37</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>63</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="J103">
+        <v>37</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>38</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <v>31</v>
+      </c>
+      <c r="P103">
+        <v>8</v>
+      </c>
+      <c r="Q103">
+        <v>63</v>
+      </c>
+      <c r="R103">
+        <v>4</v>
+      </c>
+      <c r="T103">
+        <v>31</v>
+      </c>
+      <c r="U103">
+        <v>8</v>
+      </c>
+      <c r="V103">
+        <v>38</v>
+      </c>
+      <c r="W103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>28200</v>
+      </c>
+      <c r="C104">
+        <v>28200</v>
+      </c>
+      <c r="E104">
+        <v>31</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>63</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>37</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+      <c r="L104">
+        <v>38</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>37</v>
+      </c>
+      <c r="P104">
+        <v>6</v>
+      </c>
+      <c r="Q104">
+        <v>63</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="T104">
+        <v>31</v>
+      </c>
+      <c r="U104">
+        <v>10</v>
+      </c>
+      <c r="V104">
+        <v>38</v>
+      </c>
+      <c r="W104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105">
+        <v>15</v>
+      </c>
+      <c r="B105">
+        <v>28000</v>
+      </c>
+      <c r="C105">
+        <v>28000</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>63</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="J105">
+        <v>37</v>
+      </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
+      <c r="L105">
+        <v>38</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="O105">
+        <v>37</v>
+      </c>
+      <c r="P105">
+        <v>6</v>
+      </c>
+      <c r="Q105">
+        <v>63</v>
+      </c>
+      <c r="R105">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>31</v>
+      </c>
+      <c r="U105">
+        <v>10</v>
+      </c>
+      <c r="V105">
+        <v>38</v>
+      </c>
+      <c r="W105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106">
+        <v>28400</v>
+      </c>
+      <c r="C106">
+        <v>28400</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>63</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>37</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+      <c r="L106">
+        <v>38</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>37</v>
+      </c>
+      <c r="P106">
+        <v>6</v>
+      </c>
+      <c r="Q106">
+        <v>63</v>
+      </c>
+      <c r="R106">
+        <v>5</v>
+      </c>
+      <c r="T106">
+        <v>31</v>
+      </c>
+      <c r="U106">
+        <v>10</v>
+      </c>
+      <c r="V106">
+        <v>38</v>
+      </c>
+      <c r="W106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>28600</v>
+      </c>
+      <c r="C107">
+        <v>28600</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>63</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="J107">
+        <v>37</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+      <c r="L107">
+        <v>38</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>37</v>
+      </c>
+      <c r="P107">
+        <v>6</v>
+      </c>
+      <c r="Q107">
+        <v>63</v>
+      </c>
+      <c r="R107">
+        <v>5</v>
+      </c>
+      <c r="T107">
+        <v>31</v>
+      </c>
+      <c r="U107">
+        <v>10</v>
+      </c>
+      <c r="V107">
+        <v>38</v>
+      </c>
+      <c r="W107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108">
+        <v>28100</v>
+      </c>
+      <c r="C108">
+        <v>28100</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>63</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="J108">
+        <v>37</v>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+      <c r="L108">
+        <v>38</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>37</v>
+      </c>
+      <c r="P108">
+        <v>6</v>
+      </c>
+      <c r="Q108">
+        <v>63</v>
+      </c>
+      <c r="R108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>31</v>
+      </c>
+      <c r="U108">
+        <v>10</v>
+      </c>
+      <c r="V108">
+        <v>38</v>
+      </c>
+      <c r="W108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>28700</v>
+      </c>
+      <c r="C109">
+        <v>28700</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>63</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="J109">
+        <v>37</v>
+      </c>
+      <c r="K109">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <v>38</v>
+      </c>
+      <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="O109">
+        <v>37</v>
+      </c>
+      <c r="P109">
+        <v>6</v>
+      </c>
+      <c r="Q109">
+        <v>63</v>
+      </c>
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>31</v>
+      </c>
+      <c r="U109">
+        <v>10</v>
+      </c>
+      <c r="V109">
+        <v>38</v>
+      </c>
+      <c r="W109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110">
+        <v>28500</v>
+      </c>
+      <c r="C110">
+        <v>28500</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>63</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="J110">
+        <v>37</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110">
+        <v>38</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="O110">
+        <v>37</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>63</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>31</v>
+      </c>
+      <c r="U110">
+        <v>10</v>
+      </c>
+      <c r="V110">
+        <v>38</v>
+      </c>
+      <c r="W110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111">
+        <v>15</v>
+      </c>
+      <c r="B111">
+        <v>28300</v>
+      </c>
+      <c r="C111">
+        <v>28300</v>
+      </c>
+      <c r="E111">
+        <v>31</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>63</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="J111">
+        <v>37</v>
+      </c>
+      <c r="K111">
+        <v>6</v>
+      </c>
+      <c r="L111">
+        <v>38</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>37</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>63</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>31</v>
+      </c>
+      <c r="U111">
+        <v>10</v>
+      </c>
+      <c r="V111">
+        <v>38</v>
+      </c>
+      <c r="W111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>12300</v>
+      </c>
+      <c r="C112">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113">
+        <v>15</v>
+      </c>
+      <c r="B113">
+        <v>12500</v>
+      </c>
+      <c r="C113">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="B114">
+        <v>12700</v>
+      </c>
+      <c r="C114">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115">
+        <v>15</v>
+      </c>
+      <c r="B115">
+        <v>12800</v>
+      </c>
+      <c r="C115">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>12900</v>
+      </c>
+      <c r="C116">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117">
+        <v>15</v>
+      </c>
+      <c r="B117">
+        <v>13100</v>
+      </c>
+      <c r="C117">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118">
+        <v>13300</v>
+      </c>
+      <c r="C118">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>13400</v>
+      </c>
+      <c r="C119">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>30900</v>
+      </c>
+      <c r="C120">
+        <v>30900</v>
+      </c>
+      <c r="E120">
+        <v>37</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120">
+        <v>38</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="J120">
+        <v>31</v>
+      </c>
+      <c r="K120">
+        <v>10</v>
+      </c>
+      <c r="L120">
+        <v>38</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>37</v>
+      </c>
+      <c r="P120">
+        <v>5</v>
+      </c>
+      <c r="Q120">
+        <v>63</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>31</v>
+      </c>
+      <c r="U120">
+        <v>10</v>
+      </c>
+      <c r="V120">
+        <v>63</v>
+      </c>
+      <c r="W120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121">
+        <v>31200</v>
+      </c>
+      <c r="C121">
+        <v>31200</v>
+      </c>
+      <c r="E121">
+        <v>37</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>38</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
+      <c r="J121">
+        <v>31</v>
+      </c>
+      <c r="K121">
+        <v>10</v>
+      </c>
+      <c r="L121">
+        <v>38</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="O121">
+        <v>37</v>
+      </c>
+      <c r="P121">
+        <v>5</v>
+      </c>
+      <c r="Q121">
+        <v>63</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="T121">
+        <v>31</v>
+      </c>
+      <c r="U121">
+        <v>10</v>
+      </c>
+      <c r="V121">
+        <v>63</v>
+      </c>
+      <c r="W121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122">
+        <v>31100</v>
+      </c>
+      <c r="C122">
+        <v>31100</v>
+      </c>
+      <c r="E122">
+        <v>37</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>38</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <v>31</v>
+      </c>
+      <c r="K122">
+        <v>10</v>
+      </c>
+      <c r="L122">
+        <v>38</v>
+      </c>
+      <c r="M122">
+        <v>5</v>
+      </c>
+      <c r="O122">
+        <v>37</v>
+      </c>
+      <c r="P122">
+        <v>5</v>
+      </c>
+      <c r="Q122">
+        <v>63</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>31</v>
+      </c>
+      <c r="U122">
+        <v>10</v>
+      </c>
+      <c r="V122">
+        <v>63</v>
+      </c>
+      <c r="W122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123">
+        <v>31000</v>
+      </c>
+      <c r="C123">
+        <v>31000</v>
+      </c>
+      <c r="E123">
+        <v>37</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>38</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="J123">
+        <v>31</v>
+      </c>
+      <c r="K123">
+        <v>10</v>
+      </c>
+      <c r="L123">
+        <v>38</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+      <c r="O123">
+        <v>37</v>
+      </c>
+      <c r="P123">
+        <v>5</v>
+      </c>
+      <c r="Q123">
+        <v>63</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>64</v>
+      </c>
+      <c r="U123">
+        <v>5</v>
+      </c>
+      <c r="V123">
+        <v>38</v>
+      </c>
+      <c r="W123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124">
+        <v>16</v>
+      </c>
+      <c r="B124">
+        <v>31300</v>
+      </c>
+      <c r="C124">
+        <v>31300</v>
+      </c>
+      <c r="E124">
+        <v>37</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>38</v>
+      </c>
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <v>31</v>
+      </c>
+      <c r="K124">
+        <v>10</v>
+      </c>
+      <c r="L124">
+        <v>38</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>37</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>63</v>
+      </c>
+      <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>31</v>
+      </c>
+      <c r="U124">
+        <v>10</v>
+      </c>
+      <c r="V124">
+        <v>63</v>
+      </c>
+      <c r="W124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125">
+        <v>16</v>
+      </c>
+      <c r="B125">
+        <v>31400</v>
+      </c>
+      <c r="C125">
+        <v>31400</v>
+      </c>
+      <c r="E125">
+        <v>37</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>38</v>
+      </c>
+      <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>31</v>
+      </c>
+      <c r="K125">
+        <v>10</v>
+      </c>
+      <c r="L125">
+        <v>38</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>37</v>
+      </c>
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="Q125">
+        <v>63</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>31</v>
+      </c>
+      <c r="U125">
+        <v>10</v>
+      </c>
+      <c r="V125">
+        <v>63</v>
+      </c>
+      <c r="W125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>14300</v>
+      </c>
+      <c r="C126">
+        <v>14300</v>
+      </c>
+      <c r="E126">
+        <v>37</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>38</v>
+      </c>
+      <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="J126">
+        <v>31</v>
+      </c>
+      <c r="K126">
+        <v>10</v>
+      </c>
+      <c r="L126">
+        <v>38</v>
+      </c>
+      <c r="M126">
+        <v>5</v>
+      </c>
+      <c r="O126">
+        <v>37</v>
+      </c>
+      <c r="P126">
+        <v>5</v>
+      </c>
+      <c r="Q126">
+        <v>63</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>31</v>
+      </c>
+      <c r="U126">
+        <v>10</v>
+      </c>
+      <c r="V126">
+        <v>63</v>
+      </c>
+      <c r="W126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127">
+        <v>14700</v>
+      </c>
+      <c r="C127">
+        <v>14700</v>
+      </c>
+      <c r="E127">
+        <v>31</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>63</v>
+      </c>
+      <c r="H127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>15700</v>
+      </c>
+      <c r="C128">
+        <v>15700</v>
+      </c>
+      <c r="E128">
+        <v>37</v>
+      </c>
+      <c r="F128">
+        <v>6</v>
+      </c>
+      <c r="G128">
+        <v>38</v>
+      </c>
+      <c r="H128">
+        <v>5</v>
+      </c>
+      <c r="J128">
+        <v>31</v>
+      </c>
+      <c r="K128">
+        <v>10</v>
+      </c>
+      <c r="L128">
+        <v>38</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="O128">
+        <v>37</v>
+      </c>
+      <c r="P128">
+        <v>6</v>
+      </c>
+      <c r="Q128">
+        <v>63</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="T128">
+        <v>31</v>
+      </c>
+      <c r="U128">
+        <v>10</v>
+      </c>
+      <c r="V128">
+        <v>63</v>
+      </c>
+      <c r="W128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>15800</v>
+      </c>
+      <c r="C129">
+        <v>15800</v>
+      </c>
+      <c r="E129">
+        <v>37</v>
+      </c>
+      <c r="F129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>15900</v>
+      </c>
+      <c r="C130">
+        <v>15900</v>
+      </c>
+      <c r="E130">
+        <v>37</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>38</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="J130">
+        <v>31</v>
+      </c>
+      <c r="K130">
+        <v>10</v>
+      </c>
+      <c r="L130">
+        <v>38</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+      <c r="O130">
+        <v>37</v>
+      </c>
+      <c r="P130">
+        <v>6</v>
+      </c>
+      <c r="Q130">
+        <v>63</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="T130">
+        <v>31</v>
+      </c>
+      <c r="U130">
+        <v>10</v>
+      </c>
+      <c r="V130">
+        <v>63</v>
+      </c>
+      <c r="W130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>16000</v>
+      </c>
+      <c r="C131">
+        <v>16000</v>
+      </c>
+      <c r="E131">
+        <v>37</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131">
+        <v>38</v>
+      </c>
+      <c r="H131">
+        <v>6</v>
+      </c>
+      <c r="J131">
+        <v>37</v>
+      </c>
+      <c r="K131">
+        <v>6</v>
+      </c>
+      <c r="L131">
+        <v>63</v>
+      </c>
+      <c r="M131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132">
+        <v>17</v>
+      </c>
+      <c r="B132">
+        <v>16100</v>
+      </c>
+      <c r="C132">
+        <v>16100</v>
+      </c>
+      <c r="E132">
+        <v>31</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132">
+        <v>38</v>
+      </c>
+      <c r="H132">
+        <v>6</v>
+      </c>
+      <c r="J132">
+        <v>31</v>
+      </c>
+      <c r="K132">
+        <v>10</v>
+      </c>
+      <c r="L132">
+        <v>63</v>
+      </c>
+      <c r="M132">
+        <v>6</v>
+      </c>
+      <c r="O132">
+        <v>37</v>
+      </c>
+      <c r="P132">
+        <v>10</v>
+      </c>
+      <c r="Q132">
+        <v>38</v>
+      </c>
+      <c r="R132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>37</v>
+      </c>
+      <c r="U132">
+        <v>10</v>
+      </c>
+      <c r="V132">
+        <v>63</v>
+      </c>
+      <c r="W132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133">
+        <v>17</v>
+      </c>
+      <c r="B133">
+        <v>16200</v>
+      </c>
+      <c r="C133">
+        <v>16200</v>
+      </c>
+      <c r="E133">
+        <v>37</v>
+      </c>
+      <c r="F133">
+        <v>6</v>
+      </c>
+      <c r="G133">
+        <v>38</v>
+      </c>
+      <c r="H133">
+        <v>5</v>
+      </c>
+      <c r="J133">
+        <v>31</v>
+      </c>
+      <c r="K133">
+        <v>10</v>
+      </c>
+      <c r="L133">
+        <v>38</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>37</v>
+      </c>
+      <c r="P133">
+        <v>6</v>
+      </c>
+      <c r="Q133">
+        <v>63</v>
+      </c>
+      <c r="R133">
+        <v>5</v>
+      </c>
+      <c r="T133">
+        <v>31</v>
+      </c>
+      <c r="U133">
+        <v>10</v>
+      </c>
+      <c r="V133">
+        <v>63</v>
+      </c>
+      <c r="W133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
+      <c r="A134">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>16300</v>
+      </c>
+      <c r="C134">
+        <v>16300</v>
+      </c>
+      <c r="E134">
+        <v>37</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
+        <v>38</v>
+      </c>
+      <c r="H134">
+        <v>6</v>
+      </c>
+      <c r="J134">
+        <v>37</v>
+      </c>
+      <c r="K134">
+        <v>6</v>
+      </c>
+      <c r="L134">
+        <v>63</v>
+      </c>
+      <c r="M134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>16400</v>
+      </c>
+      <c r="C135">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>17300</v>
+      </c>
+      <c r="C136">
+        <v>17300</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>37</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>38</v>
+      </c>
+      <c r="H136">
+        <v>5</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>37</v>
+      </c>
+      <c r="K136">
+        <v>6</v>
+      </c>
+      <c r="L136">
+        <v>38</v>
+      </c>
+      <c r="M136">
+        <v>6</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>37</v>
+      </c>
+      <c r="P136">
+        <v>5</v>
+      </c>
+      <c r="Q136">
+        <v>38</v>
+      </c>
+      <c r="R136">
+        <v>5</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+      <c r="T136">
+        <v>31</v>
+      </c>
+      <c r="U136">
+        <v>11</v>
+      </c>
+      <c r="V136">
+        <v>63</v>
+      </c>
+      <c r="W136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>17500</v>
+      </c>
+      <c r="C137">
+        <v>17500</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>31</v>
+      </c>
+      <c r="F137">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>26</v>
+      </c>
+      <c r="H137">
+        <v>11</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>37</v>
+      </c>
+      <c r="K137">
+        <v>6</v>
+      </c>
+      <c r="L137">
+        <v>38</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>37</v>
+      </c>
+      <c r="P137">
+        <v>5</v>
+      </c>
+      <c r="Q137">
+        <v>38</v>
+      </c>
+      <c r="R137">
+        <v>5</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>37</v>
+      </c>
+      <c r="U137">
+        <v>5</v>
+      </c>
+      <c r="V137">
+        <v>38</v>
+      </c>
+      <c r="W137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138">
+        <v>18</v>
+      </c>
+      <c r="B138">
+        <v>17600</v>
+      </c>
+      <c r="C138">
+        <v>17600</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>37</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138">
+        <v>38</v>
+      </c>
+      <c r="H138">
+        <v>5</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>37</v>
+      </c>
+      <c r="K138">
+        <v>6</v>
+      </c>
+      <c r="L138">
+        <v>38</v>
+      </c>
+      <c r="M138">
+        <v>6</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>37</v>
+      </c>
+      <c r="P138">
+        <v>6</v>
+      </c>
+      <c r="Q138">
+        <v>63</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+      <c r="T138">
+        <v>37</v>
+      </c>
+      <c r="U138">
+        <v>6</v>
+      </c>
+      <c r="V138">
+        <v>63</v>
+      </c>
+      <c r="W138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139">
+        <v>18</v>
+      </c>
+      <c r="B139">
+        <v>17900</v>
+      </c>
+      <c r="C139">
+        <v>17900</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>37</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="G139">
+        <v>38</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>37</v>
+      </c>
+      <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139">
+        <v>38</v>
+      </c>
+      <c r="M139">
+        <v>5</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>37</v>
+      </c>
+      <c r="P139">
+        <v>5</v>
+      </c>
+      <c r="Q139">
+        <v>38</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="T139">
+        <v>37</v>
+      </c>
+      <c r="U139">
+        <v>6</v>
+      </c>
+      <c r="V139">
+        <v>62</v>
+      </c>
+      <c r="W139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140">
+        <v>18</v>
+      </c>
+      <c r="B140">
+        <v>18200</v>
+      </c>
+      <c r="C140">
+        <v>18200</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>31</v>
+      </c>
+      <c r="F140">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>62</v>
+      </c>
+      <c r="H140">
+        <v>11</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>31</v>
+      </c>
+      <c r="K140">
+        <v>11</v>
+      </c>
+      <c r="L140">
+        <v>32</v>
+      </c>
+      <c r="M140">
+        <v>11</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>31</v>
+      </c>
+      <c r="P140">
+        <v>11</v>
+      </c>
+      <c r="Q140">
+        <v>38</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="T140">
+        <v>31</v>
+      </c>
+      <c r="U140">
+        <v>11</v>
+      </c>
+      <c r="V140">
+        <v>38</v>
+      </c>
+      <c r="W140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141">
+        <v>18300</v>
+      </c>
+      <c r="C141">
+        <v>18300</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>31</v>
+      </c>
+      <c r="F141">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>63</v>
+      </c>
+      <c r="H141">
+        <v>6</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>37</v>
+      </c>
+      <c r="K141">
+        <v>6</v>
+      </c>
+      <c r="L141">
+        <v>38</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>37</v>
+      </c>
+      <c r="P141">
+        <v>5</v>
+      </c>
+      <c r="Q141">
+        <v>38</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>37</v>
+      </c>
+      <c r="U141">
+        <v>5</v>
+      </c>
+      <c r="V141">
+        <v>38</v>
+      </c>
+      <c r="W141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>18400</v>
+      </c>
+      <c r="C142">
+        <v>18400</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>37</v>
+      </c>
+      <c r="F142">
+        <v>6</v>
+      </c>
+      <c r="G142">
+        <v>38</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>37</v>
+      </c>
+      <c r="K142">
+        <v>5</v>
+      </c>
+      <c r="L142">
+        <v>38</v>
+      </c>
+      <c r="M142">
+        <v>5</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>37</v>
+      </c>
+      <c r="P142">
+        <v>5</v>
+      </c>
+      <c r="Q142">
+        <v>38</v>
+      </c>
+      <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>31</v>
+      </c>
+      <c r="U142">
+        <v>11</v>
+      </c>
+      <c r="V142">
+        <v>63</v>
+      </c>
+      <c r="W142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
+      <c r="A143">
+        <v>18</v>
+      </c>
+      <c r="B143">
+        <v>18500</v>
+      </c>
+      <c r="C143">
+        <v>18500</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>31</v>
+      </c>
+      <c r="F143">
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>38</v>
+      </c>
+      <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>37</v>
+      </c>
+      <c r="K143">
+        <v>6</v>
+      </c>
+      <c r="L143">
+        <v>38</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>37</v>
+      </c>
+      <c r="P143">
+        <v>6</v>
+      </c>
+      <c r="Q143">
+        <v>38</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>37</v>
+      </c>
+      <c r="U143">
+        <v>5</v>
+      </c>
+      <c r="V143">
+        <v>38</v>
+      </c>
+      <c r="W143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144">
+        <v>19</v>
+      </c>
+      <c r="B144">
+        <v>24800</v>
+      </c>
+      <c r="C144">
+        <v>24800</v>
+      </c>
+      <c r="E144">
+        <v>31</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>38</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="J144">
+        <v>31</v>
+      </c>
+      <c r="K144">
+        <v>11</v>
+      </c>
+      <c r="L144">
+        <v>63</v>
+      </c>
+      <c r="M144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145">
+        <v>19</v>
+      </c>
+      <c r="B145">
+        <v>23900</v>
+      </c>
+      <c r="C145">
+        <v>23900</v>
+      </c>
+      <c r="E145">
+        <v>31</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>63</v>
+      </c>
+      <c r="H145">
+        <v>6</v>
+      </c>
+      <c r="J145">
+        <v>37</v>
+      </c>
+      <c r="K145">
+        <v>6</v>
+      </c>
+      <c r="L145">
+        <v>63</v>
+      </c>
+      <c r="M145">
+        <v>6</v>
+      </c>
+      <c r="O145">
+        <v>37</v>
+      </c>
+      <c r="P145">
+        <v>6</v>
+      </c>
+      <c r="Q145">
+        <v>38</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>37</v>
+      </c>
+      <c r="U145">
+        <v>6</v>
+      </c>
+      <c r="V145">
+        <v>39</v>
+      </c>
+      <c r="W145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>24200</v>
+      </c>
+      <c r="C146">
+        <v>24200</v>
+      </c>
+      <c r="E146">
+        <v>31</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>38</v>
+      </c>
+      <c r="H146">
+        <v>6</v>
+      </c>
+      <c r="J146">
+        <v>37</v>
+      </c>
+      <c r="K146">
+        <v>6</v>
+      </c>
+      <c r="L146">
+        <v>63</v>
+      </c>
+      <c r="M146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>24700</v>
+      </c>
+      <c r="C147">
+        <v>24700</v>
+      </c>
+      <c r="E147">
+        <v>31</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>63</v>
+      </c>
+      <c r="H147">
+        <v>6</v>
+      </c>
+      <c r="J147">
+        <v>37</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+      <c r="L147">
+        <v>63</v>
+      </c>
+      <c r="M147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>24600</v>
+      </c>
+      <c r="C148">
+        <v>24600</v>
+      </c>
+      <c r="E148">
+        <v>31</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>63</v>
+      </c>
+      <c r="H148">
+        <v>6</v>
+      </c>
+      <c r="J148">
+        <v>37</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
+      <c r="L148">
+        <v>38</v>
+      </c>
+      <c r="M148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>24000</v>
+      </c>
+      <c r="C149">
+        <v>24000</v>
+      </c>
+      <c r="E149">
+        <v>31</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>38</v>
+      </c>
+      <c r="H149">
+        <v>6</v>
+      </c>
+      <c r="J149">
+        <v>37</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+      <c r="L149">
+        <v>63</v>
+      </c>
+      <c r="M149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>23800</v>
+      </c>
+      <c r="C150">
+        <v>23800</v>
+      </c>
+      <c r="E150">
+        <v>31</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>63</v>
+      </c>
+      <c r="H150">
+        <v>6</v>
+      </c>
+      <c r="J150">
+        <v>37</v>
+      </c>
+      <c r="K150">
+        <v>6</v>
+      </c>
+      <c r="L150">
+        <v>63</v>
+      </c>
+      <c r="M150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>24300</v>
+      </c>
+      <c r="C151">
+        <v>24300</v>
+      </c>
+      <c r="E151">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>63</v>
+      </c>
+      <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <v>37</v>
+      </c>
+      <c r="K151">
+        <v>6</v>
+      </c>
+      <c r="L151">
+        <v>63</v>
+      </c>
+      <c r="M151">
+        <v>6</v>
+      </c>
+      <c r="O151">
+        <v>31</v>
+      </c>
+      <c r="P151">
+        <v>11</v>
+      </c>
+      <c r="Q151">
+        <v>38</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BF1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>